--- a/documents/slot数据采集源表20250421_1427.xlsx
+++ b/documents/slot数据采集源表20250421_1427.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="14055" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="510">
   <si>
     <t>时间戳</t>
   </si>
@@ -1571,7 +1571,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1581,13 +1581,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1739,12 +1732,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2057,28 +2056,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2087,122 +2089,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2211,6 +2210,8 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2559,13 +2560,13 @@
   <sheetPr/>
   <dimension ref="A1:E517"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="N257" sqref="N257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2575,7 +2576,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -2592,7 +2593,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1888081592</v>
       </c>
       <c r="D2">
@@ -2609,7 +2610,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1887781592</v>
       </c>
       <c r="D3">
@@ -2626,7 +2627,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1887181592</v>
       </c>
       <c r="D4">
@@ -2643,7 +2644,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1886581592</v>
       </c>
       <c r="D5">
@@ -2660,7 +2661,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1886131592</v>
       </c>
       <c r="D6">
@@ -2677,7 +2678,7 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1885531592</v>
       </c>
       <c r="D7">
@@ -2694,7 +2695,7 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1906081592</v>
       </c>
       <c r="D8">
@@ -2711,7 +2712,7 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1905481592</v>
       </c>
       <c r="D9">
@@ -2728,7 +2729,7 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1904881592</v>
       </c>
       <c r="D10">
@@ -2745,7 +2746,7 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1904281592</v>
       </c>
       <c r="D11">
@@ -2762,7 +2763,7 @@
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1903681592</v>
       </c>
       <c r="D12">
@@ -2779,7 +2780,7 @@
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1984081592</v>
       </c>
       <c r="D13">
@@ -2796,7 +2797,7 @@
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1983631592</v>
       </c>
       <c r="D14">
@@ -2813,7 +2814,7 @@
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1983031592</v>
       </c>
       <c r="D15">
@@ -2830,7 +2831,7 @@
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1982431592</v>
       </c>
       <c r="D16">
@@ -2847,7 +2848,7 @@
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1981831592</v>
       </c>
       <c r="D17">
@@ -2864,7 +2865,7 @@
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1981231592</v>
       </c>
       <c r="D18">
@@ -2881,7 +2882,7 @@
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1980631592</v>
       </c>
       <c r="D19">
@@ -2898,7 +2899,7 @@
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1980481592</v>
       </c>
       <c r="D20">
@@ -2915,7 +2916,7 @@
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>1979881592</v>
       </c>
       <c r="D21">
@@ -2932,7 +2933,7 @@
       <c r="B22">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>1979281592</v>
       </c>
       <c r="D22">
@@ -2949,7 +2950,7 @@
       <c r="B23">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>1979581592</v>
       </c>
       <c r="D23">
@@ -2966,7 +2967,7 @@
       <c r="B24">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>1978981592</v>
       </c>
       <c r="D24">
@@ -2983,7 +2984,7 @@
       <c r="B25">
         <v>24</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>1978381592</v>
       </c>
       <c r="D25">
@@ -3000,7 +3001,7 @@
       <c r="B26">
         <v>25</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>1986781592</v>
       </c>
       <c r="D26">
@@ -3017,7 +3018,7 @@
       <c r="B27">
         <v>26</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>1987531592</v>
       </c>
       <c r="D27">
@@ -3034,7 +3035,7 @@
       <c r="B28">
         <v>27</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>1986931592</v>
       </c>
       <c r="D28">
@@ -3051,7 +3052,7 @@
       <c r="B29">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>1986331592</v>
       </c>
       <c r="D29">
@@ -3068,7 +3069,7 @@
       <c r="B30">
         <v>29</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>1985731592</v>
       </c>
       <c r="D30">
@@ -3085,7 +3086,7 @@
       <c r="B31">
         <v>30</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1985131592</v>
       </c>
       <c r="D31">
@@ -3102,7 +3103,7 @@
       <c r="B32">
         <v>31</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>1984531592</v>
       </c>
       <c r="D32">
@@ -3119,7 +3120,7 @@
       <c r="B33">
         <v>32</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>1983931592</v>
       </c>
       <c r="D33">
@@ -3136,7 +3137,7 @@
       <c r="B34">
         <v>33</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>1983331592</v>
       </c>
       <c r="D34">
@@ -3153,7 +3154,7 @@
       <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>1982731592</v>
       </c>
       <c r="D35">
@@ -3170,7 +3171,7 @@
       <c r="B36">
         <v>35</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>1982131592</v>
       </c>
       <c r="D36">
@@ -3187,7 +3188,7 @@
       <c r="B37">
         <v>36</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>1981531592</v>
       </c>
       <c r="D37">
@@ -3204,7 +3205,7 @@
       <c r="B38">
         <v>37</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>1981081592</v>
       </c>
       <c r="D38">
@@ -3221,7 +3222,7 @@
       <c r="B39">
         <v>38</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>1980481592</v>
       </c>
       <c r="D39">
@@ -3238,7 +3239,7 @@
       <c r="B40">
         <v>39</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>1985431592</v>
       </c>
       <c r="D40">
@@ -3255,7 +3256,7 @@
       <c r="B41">
         <v>40</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>1986031592</v>
       </c>
       <c r="D41">
@@ -3272,7 +3273,7 @@
       <c r="B42">
         <v>41</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>1985581592</v>
       </c>
       <c r="D42">
@@ -3289,7 +3290,7 @@
       <c r="B43">
         <v>42</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>1985131592</v>
       </c>
       <c r="D43">
@@ -3306,7 +3307,7 @@
       <c r="B44">
         <v>43</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>1984531592</v>
       </c>
       <c r="D44">
@@ -3323,7 +3324,7 @@
       <c r="B45">
         <v>44</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>1983931592</v>
       </c>
       <c r="D45">
@@ -3340,7 +3341,7 @@
       <c r="B46">
         <v>45</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>1983331592</v>
       </c>
       <c r="D46">
@@ -3357,7 +3358,7 @@
       <c r="B47">
         <v>46</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>1983331592</v>
       </c>
       <c r="D47">
@@ -3374,7 +3375,7 @@
       <c r="B48">
         <v>47</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>1982731592</v>
       </c>
       <c r="D48">
@@ -3391,7 +3392,7 @@
       <c r="B49">
         <v>48</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>1982131592</v>
       </c>
       <c r="D49">
@@ -3408,7 +3409,7 @@
       <c r="B50">
         <v>49</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>1981531592</v>
       </c>
       <c r="D50">
@@ -3425,7 +3426,7 @@
       <c r="B51">
         <v>50</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>1980931592</v>
       </c>
       <c r="D51">
@@ -3442,7 +3443,7 @@
       <c r="B52">
         <v>51</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>1980331592</v>
       </c>
       <c r="D52">
@@ -3459,7 +3460,7 @@
       <c r="B53">
         <v>52</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>1979731592</v>
       </c>
       <c r="D53">
@@ -3476,7 +3477,7 @@
       <c r="B54">
         <v>53</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>1979131592</v>
       </c>
       <c r="D54">
@@ -3493,7 +3494,7 @@
       <c r="B55">
         <v>54</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>1978531592</v>
       </c>
       <c r="D55">
@@ -3510,7 +3511,7 @@
       <c r="B56">
         <v>55</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>1978381592</v>
       </c>
       <c r="D56">
@@ -3527,7 +3528,7 @@
       <c r="B57">
         <v>56</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>1978456592</v>
       </c>
       <c r="D57">
@@ -3544,7 +3545,7 @@
       <c r="B58">
         <v>57</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>1977856592</v>
       </c>
       <c r="D58">
@@ -3561,7 +3562,7 @@
       <c r="B59">
         <v>58</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>1978381592</v>
       </c>
       <c r="D59">
@@ -3578,7 +3579,7 @@
       <c r="B60">
         <v>59</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>1977781592</v>
       </c>
       <c r="D60">
@@ -3595,7 +3596,7 @@
       <c r="B61">
         <v>60</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>1977181592</v>
       </c>
       <c r="D61">
@@ -3612,7 +3613,7 @@
       <c r="B62">
         <v>61</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>1976731592</v>
       </c>
       <c r="D62">
@@ -3629,7 +3630,7 @@
       <c r="B63">
         <v>62</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>1976131592</v>
       </c>
       <c r="D63">
@@ -3646,7 +3647,7 @@
       <c r="B64">
         <v>63</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>1975531592</v>
       </c>
       <c r="D64">
@@ -3663,7 +3664,7 @@
       <c r="B65">
         <v>64</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>1979431592</v>
       </c>
       <c r="D65">
@@ -3680,7 +3681,7 @@
       <c r="B66">
         <v>65</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>1978831592</v>
       </c>
       <c r="D66">
@@ -3697,7 +3698,7 @@
       <c r="B67">
         <v>66</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>1978231592</v>
       </c>
       <c r="D67">
@@ -3714,7 +3715,7 @@
       <c r="B68">
         <v>67</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>1977781592</v>
       </c>
       <c r="D68">
@@ -3731,7 +3732,7 @@
       <c r="B69">
         <v>68</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>1977181592</v>
       </c>
       <c r="D69">
@@ -3748,7 +3749,7 @@
       <c r="B70">
         <v>69</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>2054341592</v>
       </c>
       <c r="D70">
@@ -3765,7 +3766,7 @@
       <c r="B71">
         <v>70</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>2053966592</v>
       </c>
       <c r="D71">
@@ -3782,7 +3783,7 @@
       <c r="B72">
         <v>71</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>2053366592</v>
       </c>
       <c r="D72">
@@ -3799,7 +3800,7 @@
       <c r="B73">
         <v>72</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>2052766592</v>
       </c>
       <c r="D73">
@@ -3816,7 +3817,7 @@
       <c r="B74">
         <v>73</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>2052166592</v>
       </c>
       <c r="D74">
@@ -3833,7 +3834,7 @@
       <c r="B75">
         <v>74</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>2051566592</v>
       </c>
       <c r="D75">
@@ -3850,7 +3851,7 @@
       <c r="B76">
         <v>75</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>2050966592</v>
       </c>
       <c r="D76">
@@ -3867,7 +3868,7 @@
       <c r="B77">
         <v>76</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>2050366592</v>
       </c>
       <c r="D77">
@@ -3884,7 +3885,7 @@
       <c r="B78">
         <v>77</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>2049766592</v>
       </c>
       <c r="D78">
@@ -3901,7 +3902,7 @@
       <c r="B79">
         <v>78</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>2049766592</v>
       </c>
       <c r="D79">
@@ -3918,7 +3919,7 @@
       <c r="B80">
         <v>79</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>2049166592</v>
       </c>
       <c r="D80">
@@ -3935,7 +3936,7 @@
       <c r="B81">
         <v>80</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>2049466592</v>
       </c>
       <c r="D81">
@@ -3952,7 +3953,7 @@
       <c r="B82">
         <v>81</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>2048866592</v>
       </c>
       <c r="D82">
@@ -3969,7 +3970,7 @@
       <c r="B83">
         <v>82</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>2048266592</v>
       </c>
       <c r="D83">
@@ -3986,7 +3987,7 @@
       <c r="B84">
         <v>83</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>2047966592</v>
       </c>
       <c r="D84">
@@ -4003,7 +4004,7 @@
       <c r="B85">
         <v>84</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>2047366592</v>
       </c>
       <c r="D85">
@@ -4020,7 +4021,7 @@
       <c r="B86">
         <v>85</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>2046991592</v>
       </c>
       <c r="D86">
@@ -4037,7 +4038,7 @@
       <c r="B87">
         <v>86</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>2046391592</v>
       </c>
       <c r="D87">
@@ -4054,7 +4055,7 @@
       <c r="B88">
         <v>87</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>2045791592</v>
       </c>
       <c r="D88">
@@ -4071,7 +4072,7 @@
       <c r="B89">
         <v>88</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>2045191592</v>
       </c>
       <c r="D89">
@@ -4088,7 +4089,7 @@
       <c r="B90">
         <v>89</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>2044741592</v>
       </c>
       <c r="D90">
@@ -4105,7 +4106,7 @@
       <c r="B91">
         <v>90</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>2044141592</v>
       </c>
       <c r="D91">
@@ -4122,7 +4123,7 @@
       <c r="B92">
         <v>91</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>2043766592</v>
       </c>
       <c r="D92">
@@ -4139,7 +4140,7 @@
       <c r="B93">
         <v>92</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>2043166592</v>
       </c>
       <c r="D93">
@@ -4156,7 +4157,7 @@
       <c r="B94">
         <v>93</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>2042566592</v>
       </c>
       <c r="D94">
@@ -4173,7 +4174,7 @@
       <c r="B95">
         <v>94</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>2041966592</v>
       </c>
       <c r="D95">
@@ -4190,7 +4191,7 @@
       <c r="B96">
         <v>95</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>2042566592</v>
       </c>
       <c r="D96">
@@ -4207,7 +4208,7 @@
       <c r="B97">
         <v>96</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>2041966592</v>
       </c>
       <c r="D97">
@@ -4224,7 +4225,7 @@
       <c r="B98">
         <v>97</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>2041366592</v>
       </c>
       <c r="D98">
@@ -4241,7 +4242,7 @@
       <c r="B99">
         <v>98</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>2040916592</v>
       </c>
       <c r="D99">
@@ -4258,7 +4259,7 @@
       <c r="B100">
         <v>99</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>2040766592</v>
       </c>
       <c r="D100">
@@ -4275,7 +4276,7 @@
       <c r="B101">
         <v>100</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>2040841592</v>
       </c>
       <c r="D101">
@@ -4292,7 +4293,7 @@
       <c r="B102">
         <v>101</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>2040241592</v>
       </c>
       <c r="D102">
@@ -4309,7 +4310,7 @@
       <c r="B103">
         <v>102</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>2039641592</v>
       </c>
       <c r="D103">
@@ -4326,7 +4327,7 @@
       <c r="B104">
         <v>103</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>2039041592</v>
       </c>
       <c r="D104">
@@ -4343,7 +4344,7 @@
       <c r="B105">
         <v>104</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>2038591592</v>
       </c>
       <c r="D105">
@@ -4360,7 +4361,7 @@
       <c r="B106">
         <v>105</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>2037991592</v>
       </c>
       <c r="D106">
@@ -4377,7 +4378,7 @@
       <c r="B107">
         <v>106</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>2037391592</v>
       </c>
       <c r="D107">
@@ -4394,7 +4395,7 @@
       <c r="B108">
         <v>107</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>2037391592</v>
       </c>
       <c r="D108">
@@ -4411,7 +4412,7 @@
       <c r="B109">
         <v>108</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>2036791592</v>
       </c>
       <c r="D109">
@@ -4428,7 +4429,7 @@
       <c r="B110">
         <v>109</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>2036191592</v>
       </c>
       <c r="D110">
@@ -4445,7 +4446,7 @@
       <c r="B111">
         <v>110</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>2035591592</v>
       </c>
       <c r="D111">
@@ -4462,7 +4463,7 @@
       <c r="B112">
         <v>111</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>2035891592</v>
       </c>
       <c r="D112">
@@ -4479,7 +4480,7 @@
       <c r="B113">
         <v>112</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>2035291592</v>
       </c>
       <c r="D113">
@@ -4496,7 +4497,7 @@
       <c r="B114">
         <v>113</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>2034691592</v>
       </c>
       <c r="D114">
@@ -4513,7 +4514,7 @@
       <c r="B115">
         <v>114</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>2034091592</v>
       </c>
       <c r="D115">
@@ -4530,7 +4531,7 @@
       <c r="B116">
         <v>115</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>2033491592</v>
       </c>
       <c r="D116">
@@ -4547,7 +4548,7 @@
       <c r="B117">
         <v>116</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>2032891592</v>
       </c>
       <c r="D117">
@@ -4564,7 +4565,7 @@
       <c r="B118">
         <v>117</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>2032291592</v>
       </c>
       <c r="D118">
@@ -4581,7 +4582,7 @@
       <c r="B119">
         <v>118</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>2031691592</v>
       </c>
       <c r="D119">
@@ -4598,7 +4599,7 @@
       <c r="B120">
         <v>119</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>2031091592</v>
       </c>
       <c r="D120">
@@ -4615,7 +4616,7 @@
       <c r="B121">
         <v>120</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>2030491592</v>
       </c>
       <c r="D121">
@@ -4632,7 +4633,7 @@
       <c r="B122">
         <v>121</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>2030641592</v>
       </c>
       <c r="D122">
@@ -4649,7 +4650,7 @@
       <c r="B123">
         <v>122</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>2030041592</v>
       </c>
       <c r="D123">
@@ -4666,7 +4667,7 @@
       <c r="B124">
         <v>123</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>2029441592</v>
       </c>
       <c r="D124">
@@ -4683,7 +4684,7 @@
       <c r="B125">
         <v>124</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>2028841592</v>
       </c>
       <c r="D125">
@@ -4700,7 +4701,7 @@
       <c r="B126">
         <v>125</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>2028241592</v>
       </c>
       <c r="D126">
@@ -4717,7 +4718,7 @@
       <c r="B127">
         <v>126</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>2027641592</v>
       </c>
       <c r="D127">
@@ -4734,7 +4735,7 @@
       <c r="B128">
         <v>127</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>2027041592</v>
       </c>
       <c r="D128">
@@ -4751,7 +4752,7 @@
       <c r="B129">
         <v>128</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>2026441592</v>
       </c>
       <c r="D129">
@@ -4768,7 +4769,7 @@
       <c r="B130">
         <v>129</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>2025841592</v>
       </c>
       <c r="D130">
@@ -4785,7 +4786,7 @@
       <c r="B131">
         <v>130</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>2025241592</v>
       </c>
       <c r="D131">
@@ -4802,7 +4803,7 @@
       <c r="B132">
         <v>131</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>2024641592</v>
       </c>
       <c r="D132">
@@ -4819,7 +4820,7 @@
       <c r="B133">
         <v>132</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>2024041592</v>
       </c>
       <c r="D133">
@@ -4836,7 +4837,7 @@
       <c r="B134">
         <v>133</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>2023441592</v>
       </c>
       <c r="D134">
@@ -4853,7 +4854,7 @@
       <c r="B135">
         <v>134</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>2022841592</v>
       </c>
       <c r="D135">
@@ -4870,7 +4871,7 @@
       <c r="B136">
         <v>135</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>2022241592</v>
       </c>
       <c r="D136">
@@ -4887,7 +4888,7 @@
       <c r="B137">
         <v>136</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>2022316592</v>
       </c>
       <c r="D137">
@@ -4904,7 +4905,7 @@
       <c r="B138">
         <v>137</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>2021716592</v>
       </c>
       <c r="D138">
@@ -4921,7 +4922,7 @@
       <c r="B139">
         <v>138</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>2021116592</v>
       </c>
       <c r="D139">
@@ -4938,7 +4939,7 @@
       <c r="B140">
         <v>139</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>2020516592</v>
       </c>
       <c r="D140">
@@ -4955,7 +4956,7 @@
       <c r="B141">
         <v>140</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>2019916592</v>
       </c>
       <c r="D141">
@@ -4972,7 +4973,7 @@
       <c r="B142">
         <v>141</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>2019316592</v>
       </c>
       <c r="D142">
@@ -4989,7 +4990,7 @@
       <c r="B143">
         <v>142</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>2018716592</v>
       </c>
       <c r="D143">
@@ -5006,7 +5007,7 @@
       <c r="B144">
         <v>143</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>2018116592</v>
       </c>
       <c r="D144">
@@ -5023,7 +5024,7 @@
       <c r="B145">
         <v>144</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>2017516592</v>
       </c>
       <c r="D145">
@@ -5040,7 +5041,7 @@
       <c r="B146">
         <v>145</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>2016916592</v>
       </c>
       <c r="D146">
@@ -5057,7 +5058,7 @@
       <c r="B147">
         <v>146</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>2017816592</v>
       </c>
       <c r="D147">
@@ -5074,7 +5075,7 @@
       <c r="B148">
         <v>147</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>2017366592</v>
       </c>
       <c r="D148">
@@ -5091,7 +5092,7 @@
       <c r="B149">
         <v>148</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>2017141592</v>
       </c>
       <c r="D149">
@@ -5108,7 +5109,7 @@
       <c r="B150">
         <v>149</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>2016541592</v>
       </c>
       <c r="D150">
@@ -5125,7 +5126,7 @@
       <c r="B151">
         <v>150</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>2015941592</v>
       </c>
       <c r="D151">
@@ -5142,7 +5143,7 @@
       <c r="B152">
         <v>151</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>2015341592</v>
       </c>
       <c r="D152">
@@ -5159,7 +5160,7 @@
       <c r="B153">
         <v>152</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>2014891592</v>
       </c>
       <c r="D153">
@@ -5176,7 +5177,7 @@
       <c r="B154">
         <v>153</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>2014291592</v>
       </c>
       <c r="D154">
@@ -5193,7 +5194,7 @@
       <c r="B155">
         <v>154</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>2013691592</v>
       </c>
       <c r="D155">
@@ -5210,7 +5211,7 @@
       <c r="B156">
         <v>155</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>2013091592</v>
       </c>
       <c r="D156">
@@ -5227,7 +5228,7 @@
       <c r="B157">
         <v>156</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>2012716592</v>
       </c>
       <c r="D157">
@@ -5244,7 +5245,7 @@
       <c r="B158">
         <v>157</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>2012116592</v>
       </c>
       <c r="D158">
@@ -5261,7 +5262,7 @@
       <c r="B159">
         <v>158</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>2011516592</v>
       </c>
       <c r="D159">
@@ -5278,7 +5279,7 @@
       <c r="B160">
         <v>159</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>2010916592</v>
       </c>
       <c r="D160">
@@ -5295,7 +5296,7 @@
       <c r="B161">
         <v>160</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>2013316592</v>
       </c>
       <c r="D161">
@@ -5312,7 +5313,7 @@
       <c r="B162">
         <v>161</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>2012716592</v>
       </c>
       <c r="D162">
@@ -5329,7 +5330,7 @@
       <c r="B163">
         <v>162</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>2012866592</v>
       </c>
       <c r="D163">
@@ -5346,7 +5347,7 @@
       <c r="B164">
         <v>163</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>2012266592</v>
       </c>
       <c r="D164">
@@ -5363,7 +5364,7 @@
       <c r="B165">
         <v>164</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>2011666592</v>
       </c>
       <c r="D165">
@@ -5380,7 +5381,7 @@
       <c r="B166">
         <v>165</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>2011066592</v>
       </c>
       <c r="D166">
@@ -5397,7 +5398,7 @@
       <c r="B167">
         <v>166</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>2010466592</v>
       </c>
       <c r="D167">
@@ -5414,7 +5415,7 @@
       <c r="B168">
         <v>167</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>2010316592</v>
       </c>
       <c r="D168">
@@ -5431,7 +5432,7 @@
       <c r="B169">
         <v>168</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>2009716592</v>
       </c>
       <c r="D169">
@@ -5448,7 +5449,7 @@
       <c r="B170">
         <v>169</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>2009266592</v>
       </c>
       <c r="D170">
@@ -5465,7 +5466,7 @@
       <c r="B171">
         <v>170</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>2008666592</v>
       </c>
       <c r="D171">
@@ -5482,7 +5483,7 @@
       <c r="B172">
         <v>171</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>2008066592</v>
       </c>
       <c r="D172">
@@ -5499,7 +5500,7 @@
       <c r="B173">
         <v>172</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>2007466592</v>
       </c>
       <c r="D173">
@@ -5516,7 +5517,7 @@
       <c r="B174">
         <v>173</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>2006866592</v>
       </c>
       <c r="D174">
@@ -5533,7 +5534,7 @@
       <c r="B175">
         <v>174</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>2006266592</v>
       </c>
       <c r="D175">
@@ -5550,7 +5551,7 @@
       <c r="B176">
         <v>175</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>2005666592</v>
       </c>
       <c r="D176">
@@ -5567,7 +5568,7 @@
       <c r="B177">
         <v>176</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>2005066592</v>
       </c>
       <c r="D177">
@@ -5584,7 +5585,7 @@
       <c r="B178">
         <v>177</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>2004466592</v>
       </c>
       <c r="D178">
@@ -5601,7 +5602,7 @@
       <c r="B179">
         <v>178</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>2003866592</v>
       </c>
       <c r="D179">
@@ -5618,7 +5619,7 @@
       <c r="B180">
         <v>179</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>2003266592</v>
       </c>
       <c r="D180">
@@ -5635,7 +5636,7 @@
       <c r="B181">
         <v>180</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>2002666592</v>
       </c>
       <c r="D181">
@@ -5652,7 +5653,7 @@
       <c r="B182">
         <v>181</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>2002066592</v>
       </c>
       <c r="D182">
@@ -5669,7 +5670,7 @@
       <c r="B183">
         <v>182</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>2001616592</v>
       </c>
       <c r="D183">
@@ -5686,7 +5687,7 @@
       <c r="B184">
         <v>183</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>2001016592</v>
       </c>
       <c r="D184">
@@ -5703,7 +5704,7 @@
       <c r="B185">
         <v>184</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>2000416592</v>
       </c>
       <c r="D185">
@@ -5720,7 +5721,7 @@
       <c r="B186">
         <v>185</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>1999816592</v>
       </c>
       <c r="D186">
@@ -5737,7 +5738,7 @@
       <c r="B187">
         <v>186</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>1999216592</v>
       </c>
       <c r="D187">
@@ -5754,7 +5755,7 @@
       <c r="B188">
         <v>187</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>1998616592</v>
       </c>
       <c r="D188">
@@ -5771,7 +5772,7 @@
       <c r="B189">
         <v>188</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>1998241592</v>
       </c>
       <c r="D189">
@@ -5788,7 +5789,7 @@
       <c r="B190">
         <v>189</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>1997866592</v>
       </c>
       <c r="D190">
@@ -5805,7 +5806,7 @@
       <c r="B191">
         <v>190</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>1997266592</v>
       </c>
       <c r="D191">
@@ -5822,7 +5823,7 @@
       <c r="B192">
         <v>191</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>1997116592</v>
       </c>
       <c r="D192">
@@ -5839,7 +5840,7 @@
       <c r="B193">
         <v>192</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>1996516592</v>
       </c>
       <c r="D193">
@@ -5856,7 +5857,7 @@
       <c r="B194">
         <v>193</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>1995916592</v>
       </c>
       <c r="D194">
@@ -5873,7 +5874,7 @@
       <c r="B195">
         <v>194</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>1995316592</v>
       </c>
       <c r="D195">
@@ -5890,7 +5891,7 @@
       <c r="B196">
         <v>195</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>1994866592</v>
       </c>
       <c r="D196">
@@ -5907,7 +5908,7 @@
       <c r="B197">
         <v>196</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>1994266592</v>
       </c>
       <c r="D197">
@@ -5924,7 +5925,7 @@
       <c r="B198">
         <v>197</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>1993666592</v>
       </c>
       <c r="D198">
@@ -5941,7 +5942,7 @@
       <c r="B199">
         <v>198</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>1993066592</v>
       </c>
       <c r="D199">
@@ -5958,7 +5959,7 @@
       <c r="B200">
         <v>199</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>1992841592</v>
       </c>
       <c r="D200">
@@ -5975,7 +5976,7 @@
       <c r="B201">
         <v>200</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>1992241592</v>
       </c>
       <c r="D201">
@@ -5992,7 +5993,7 @@
       <c r="B202">
         <v>201</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>1991641592</v>
       </c>
       <c r="D202">
@@ -6009,7 +6010,7 @@
       <c r="B203">
         <v>202</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>1991041592</v>
       </c>
       <c r="D203">
@@ -6026,7 +6027,7 @@
       <c r="B204">
         <v>203</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>1990591592</v>
       </c>
       <c r="D204">
@@ -6043,7 +6044,7 @@
       <c r="B205">
         <v>204</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>1989991592</v>
       </c>
       <c r="D205">
@@ -6060,7 +6061,7 @@
       <c r="B206">
         <v>205</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>1989391592</v>
       </c>
       <c r="D206">
@@ -6077,7 +6078,7 @@
       <c r="B207">
         <v>206</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>1989016592</v>
       </c>
       <c r="D207">
@@ -6094,7 +6095,7 @@
       <c r="B208">
         <v>207</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>1988716592</v>
       </c>
       <c r="D208">
@@ -6111,7 +6112,7 @@
       <c r="B209">
         <v>208</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>1988416592</v>
       </c>
       <c r="D209">
@@ -6128,7 +6129,7 @@
       <c r="B210">
         <v>209</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>1987816592</v>
       </c>
       <c r="D210">
@@ -6145,7 +6146,7 @@
       <c r="B211">
         <v>210</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>1987216592</v>
       </c>
       <c r="D211">
@@ -6162,7 +6163,7 @@
       <c r="B212">
         <v>211</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>1986991592</v>
       </c>
       <c r="D212">
@@ -6179,7 +6180,7 @@
       <c r="B213">
         <v>212</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>1986391592</v>
       </c>
       <c r="D213">
@@ -6196,7 +6197,7 @@
       <c r="B214">
         <v>213</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>1993894592</v>
       </c>
       <c r="D214">
@@ -6213,7 +6214,7 @@
       <c r="B215">
         <v>214</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>1993444592</v>
       </c>
       <c r="D215">
@@ -6230,7 +6231,7 @@
       <c r="B216">
         <v>215</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>1992844592</v>
       </c>
       <c r="D216">
@@ -6247,7 +6248,7 @@
       <c r="B217">
         <v>216</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>1992244592</v>
       </c>
       <c r="D217">
@@ -6264,7 +6265,7 @@
       <c r="B218">
         <v>217</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>1991644592</v>
       </c>
       <c r="D218">
@@ -6281,7 +6282,7 @@
       <c r="B219">
         <v>218</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>1991044592</v>
       </c>
       <c r="D219">
@@ -6298,7 +6299,7 @@
       <c r="B220">
         <v>219</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>1991644592</v>
       </c>
       <c r="D220">
@@ -6315,7 +6316,7 @@
       <c r="B221">
         <v>220</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>1991044592</v>
       </c>
       <c r="D221">
@@ -6332,7 +6333,7 @@
       <c r="B222">
         <v>221</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>1990444592</v>
       </c>
       <c r="D222">
@@ -6349,7 +6350,7 @@
       <c r="B223">
         <v>222</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>1989844592</v>
       </c>
       <c r="D223">
@@ -6366,7 +6367,7 @@
       <c r="B224">
         <v>223</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>1989244592</v>
       </c>
       <c r="D224">
@@ -6383,7 +6384,7 @@
       <c r="B225">
         <v>224</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>1988644592</v>
       </c>
       <c r="D225">
@@ -6400,7 +6401,7 @@
       <c r="B226">
         <v>225</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>1988044592</v>
       </c>
       <c r="D226">
@@ -6417,7 +6418,7 @@
       <c r="B227">
         <v>226</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>1987444592</v>
       </c>
       <c r="D227">
@@ -6434,7 +6435,7 @@
       <c r="B228">
         <v>227</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>1986844592</v>
       </c>
       <c r="D228">
@@ -6451,7 +6452,7 @@
       <c r="B229">
         <v>228</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>1986244592</v>
       </c>
       <c r="D229">
@@ -6468,7 +6469,7 @@
       <c r="B230">
         <v>229</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>1985644592</v>
       </c>
       <c r="D230">
@@ -6485,7 +6486,7 @@
       <c r="B231">
         <v>230</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>1985044592</v>
       </c>
       <c r="D231">
@@ -6502,7 +6503,7 @@
       <c r="B232">
         <v>231</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>1984444592</v>
       </c>
       <c r="D232">
@@ -6519,7 +6520,7 @@
       <c r="B233">
         <v>232</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>1983844592</v>
       </c>
       <c r="D233">
@@ -6536,7 +6537,7 @@
       <c r="B234">
         <v>233</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>1983394592</v>
       </c>
       <c r="D234">
@@ -6553,7 +6554,7 @@
       <c r="B235">
         <v>234</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>1982794592</v>
       </c>
       <c r="D235">
@@ -6570,7 +6571,7 @@
       <c r="B236">
         <v>235</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>1982194592</v>
       </c>
       <c r="D236">
@@ -6587,7 +6588,7 @@
       <c r="B237">
         <v>236</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>1981969592</v>
       </c>
       <c r="D237">
@@ -6604,7 +6605,7 @@
       <c r="B238">
         <v>237</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>1981369592</v>
       </c>
       <c r="D238">
@@ -6621,7 +6622,7 @@
       <c r="B239">
         <v>238</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>1980769592</v>
       </c>
       <c r="D239">
@@ -6638,7 +6639,7 @@
       <c r="B240">
         <v>239</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>1980169592</v>
       </c>
       <c r="D240">
@@ -6655,7 +6656,7 @@
       <c r="B241">
         <v>240</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>1979569592</v>
       </c>
       <c r="D241">
@@ -6672,7 +6673,7 @@
       <c r="B242">
         <v>241</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>1978969592</v>
       </c>
       <c r="D242">
@@ -6689,7 +6690,7 @@
       <c r="B243">
         <v>242</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>1978369592</v>
       </c>
       <c r="D243">
@@ -6706,7 +6707,7 @@
       <c r="B244">
         <v>243</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>2055529592</v>
       </c>
       <c r="D244">
@@ -6723,7 +6724,7 @@
       <c r="B245">
         <v>244</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>2054929592</v>
       </c>
       <c r="D245">
@@ -6740,7 +6741,7 @@
       <c r="B246">
         <v>245</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>2054329592</v>
       </c>
       <c r="D246">
@@ -6757,7 +6758,7 @@
       <c r="B247">
         <v>246</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>2059729592</v>
       </c>
       <c r="D247">
@@ -6774,7 +6775,7 @@
       <c r="B248">
         <v>247</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>2059129592</v>
       </c>
       <c r="D248">
@@ -6791,7 +6792,7 @@
       <c r="B249">
         <v>248</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>2076154592</v>
       </c>
       <c r="D249">
@@ -6808,7 +6809,7 @@
       <c r="B250">
         <v>249</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>2075929592</v>
       </c>
       <c r="D250">
@@ -6825,7 +6826,7 @@
       <c r="B251">
         <v>250</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>2075329592</v>
       </c>
       <c r="D251">
@@ -6842,7 +6843,7 @@
       <c r="B252">
         <v>251</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>2074729592</v>
       </c>
       <c r="D252">
@@ -6859,7 +6860,7 @@
       <c r="B253">
         <v>252</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>2074129592</v>
       </c>
       <c r="D253">
@@ -6876,7 +6877,7 @@
       <c r="B254">
         <v>253</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="1">
         <v>2073679592</v>
       </c>
       <c r="D254">
@@ -6893,7 +6894,7 @@
       <c r="B255">
         <v>254</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>2073079592</v>
       </c>
       <c r="D255">
@@ -6910,7 +6911,7 @@
       <c r="B256">
         <v>255</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>2073079592</v>
       </c>
       <c r="D256">
@@ -6927,7 +6928,7 @@
       <c r="B257">
         <v>256</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>2072479592</v>
       </c>
       <c r="D257">
@@ -6944,7 +6945,7 @@
       <c r="B258">
         <v>257</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>2071879592</v>
       </c>
       <c r="D258">
@@ -6961,7 +6962,7 @@
       <c r="B259">
         <v>258</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>2071429592</v>
       </c>
       <c r="D259">
@@ -6978,7 +6979,7 @@
       <c r="B260">
         <v>259</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>2070829592</v>
       </c>
       <c r="D260">
@@ -6995,7 +6996,7 @@
       <c r="B261">
         <v>260</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>2070829592</v>
       </c>
       <c r="D261">
@@ -7012,7 +7013,7 @@
       <c r="B262">
         <v>261</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>2070229592</v>
       </c>
       <c r="D262">
@@ -7029,7 +7030,7 @@
       <c r="B263">
         <v>262</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>2069629592</v>
       </c>
       <c r="D263">
@@ -7046,7 +7047,7 @@
       <c r="B264">
         <v>263</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>2069779592</v>
       </c>
       <c r="D264">
@@ -7063,7 +7064,7 @@
       <c r="B265">
         <v>264</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>2069329592</v>
       </c>
       <c r="D265">
@@ -7080,7 +7081,7 @@
       <c r="B266">
         <v>265</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>2069029592</v>
       </c>
       <c r="D266">
@@ -7097,7 +7098,7 @@
       <c r="B267">
         <v>266</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>2068429592</v>
       </c>
       <c r="D267">
@@ -7114,7 +7115,7 @@
       <c r="B268">
         <v>267</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>2067829592</v>
       </c>
       <c r="D268">
@@ -7131,7 +7132,7 @@
       <c r="B269">
         <v>268</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>2067229592</v>
       </c>
       <c r="D269">
@@ -7148,7 +7149,7 @@
       <c r="B270">
         <v>269</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>2066629592</v>
       </c>
       <c r="D270">
@@ -7165,7 +7166,7 @@
       <c r="B271">
         <v>270</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>2066404592</v>
       </c>
       <c r="D271">
@@ -7182,7 +7183,7 @@
       <c r="B272">
         <v>271</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>2065804592</v>
       </c>
       <c r="D272">
@@ -7199,7 +7200,7 @@
       <c r="B273">
         <v>272</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>2065204592</v>
       </c>
       <c r="D273">
@@ -7216,7 +7217,7 @@
       <c r="B274">
         <v>273</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="1">
         <v>2064604592</v>
       </c>
       <c r="D274">
@@ -7233,7 +7234,7 @@
       <c r="B275">
         <v>274</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>2064004592</v>
       </c>
       <c r="D275">
@@ -7250,7 +7251,7 @@
       <c r="B276">
         <v>275</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>2063404592</v>
       </c>
       <c r="D276">
@@ -7267,7 +7268,7 @@
       <c r="B277">
         <v>276</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>2064304592</v>
       </c>
       <c r="D277">
@@ -7284,7 +7285,7 @@
       <c r="B278">
         <v>277</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>2063704592</v>
       </c>
       <c r="D278">
@@ -7301,7 +7302,7 @@
       <c r="B279">
         <v>278</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>2063104592</v>
       </c>
       <c r="D279">
@@ -7318,7 +7319,7 @@
       <c r="B280">
         <v>279</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>2062504592</v>
       </c>
       <c r="D280">
@@ -7335,7 +7336,7 @@
       <c r="B281">
         <v>280</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>2062504592</v>
       </c>
       <c r="D281">
@@ -7352,7 +7353,7 @@
       <c r="B282">
         <v>281</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>2061904592</v>
       </c>
       <c r="D282">
@@ -7369,7 +7370,7 @@
       <c r="B283">
         <v>282</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>2061304592</v>
       </c>
       <c r="D283">
@@ -7386,7 +7387,7 @@
       <c r="B284">
         <v>283</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>2060704592</v>
       </c>
       <c r="D284">
@@ -7403,7 +7404,7 @@
       <c r="B285">
         <v>284</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>2061004592</v>
       </c>
       <c r="D285">
@@ -7420,7 +7421,7 @@
       <c r="B286">
         <v>285</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>2060404592</v>
       </c>
       <c r="D286">
@@ -7437,7 +7438,7 @@
       <c r="B287">
         <v>286</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>2060254592</v>
       </c>
       <c r="D287">
@@ -7454,7 +7455,7 @@
       <c r="B288">
         <v>287</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>2059654592</v>
       </c>
       <c r="D288">
@@ -7471,7 +7472,7 @@
       <c r="B289">
         <v>288</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>2062054592</v>
       </c>
       <c r="D289">
@@ -7488,7 +7489,7 @@
       <c r="B290">
         <v>289</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>2061604592</v>
       </c>
       <c r="D290">
@@ -7505,7 +7506,7 @@
       <c r="B291">
         <v>290</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>2061379592</v>
       </c>
       <c r="D291">
@@ -7522,7 +7523,7 @@
       <c r="B292">
         <v>291</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="1">
         <v>2060779592</v>
       </c>
       <c r="D292">
@@ -7539,7 +7540,7 @@
       <c r="B293">
         <v>292</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>2061529592</v>
       </c>
       <c r="D293">
@@ -7556,7 +7557,7 @@
       <c r="B294">
         <v>293</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="1">
         <v>2060929592</v>
       </c>
       <c r="D294">
@@ -7573,7 +7574,7 @@
       <c r="B295">
         <v>294</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="1">
         <v>2060329592</v>
       </c>
       <c r="D295">
@@ -7590,7 +7591,7 @@
       <c r="B296">
         <v>295</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="1">
         <v>2059729592</v>
       </c>
       <c r="D296">
@@ -7607,7 +7608,7 @@
       <c r="B297">
         <v>296</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="1">
         <v>2059279592</v>
       </c>
       <c r="D297">
@@ -7624,7 +7625,7 @@
       <c r="B298">
         <v>297</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="1">
         <v>2058679592</v>
       </c>
       <c r="D298">
@@ -7641,7 +7642,7 @@
       <c r="B299">
         <v>298</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="1">
         <v>2058529592</v>
       </c>
       <c r="D299">
@@ -7658,7 +7659,7 @@
       <c r="B300">
         <v>299</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="1">
         <v>2057929592</v>
       </c>
       <c r="D300">
@@ -7675,7 +7676,7 @@
       <c r="B301">
         <v>300</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="1">
         <v>2057329592</v>
       </c>
       <c r="D301">
@@ -7692,7 +7693,7 @@
       <c r="B302">
         <v>301</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="1">
         <v>2056729592</v>
       </c>
       <c r="D302">
@@ -7709,7 +7710,7 @@
       <c r="B303">
         <v>302</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="1">
         <v>2056129592</v>
       </c>
       <c r="D303">
@@ -7726,7 +7727,7 @@
       <c r="B304">
         <v>303</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="1">
         <v>2055679592</v>
       </c>
       <c r="D304">
@@ -7743,7 +7744,7 @@
       <c r="B305">
         <v>304</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="1">
         <v>2059879592</v>
       </c>
       <c r="D305">
@@ -7760,7 +7761,7 @@
       <c r="B306">
         <v>305</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="1">
         <v>2059279592</v>
       </c>
       <c r="D306">
@@ -7777,7 +7778,7 @@
       <c r="B307">
         <v>306</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="1">
         <v>2058679592</v>
       </c>
       <c r="D307">
@@ -7794,7 +7795,7 @@
       <c r="B308">
         <v>307</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="1">
         <v>2058079592</v>
       </c>
       <c r="D308">
@@ -7811,7 +7812,7 @@
       <c r="B309">
         <v>308</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="1">
         <v>2058079592</v>
       </c>
       <c r="D309">
@@ -7828,7 +7829,7 @@
       <c r="B310">
         <v>309</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="1">
         <v>2057479592</v>
       </c>
       <c r="D310">
@@ -7845,7 +7846,7 @@
       <c r="B311">
         <v>310</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="1">
         <v>2057029592</v>
       </c>
       <c r="D311">
@@ -7862,7 +7863,7 @@
       <c r="B312">
         <v>311</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="1">
         <v>2067679592</v>
       </c>
       <c r="D312">
@@ -7879,7 +7880,7 @@
       <c r="B313">
         <v>312</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="1">
         <v>2067079592</v>
       </c>
       <c r="D313">
@@ -7896,7 +7897,7 @@
       <c r="B314">
         <v>313</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="1">
         <v>2067079592</v>
       </c>
       <c r="D314">
@@ -7913,7 +7914,7 @@
       <c r="B315">
         <v>314</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="1">
         <v>2066479592</v>
       </c>
       <c r="D315">
@@ -7930,7 +7931,7 @@
       <c r="B316">
         <v>315</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="1">
         <v>2065879592</v>
       </c>
       <c r="D316">
@@ -7947,7 +7948,7 @@
       <c r="B317">
         <v>316</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="1">
         <v>2065279592</v>
       </c>
       <c r="D317">
@@ -7964,7 +7965,7 @@
       <c r="B318">
         <v>317</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="1">
         <v>2065129592</v>
       </c>
       <c r="D318">
@@ -7981,7 +7982,7 @@
       <c r="B319">
         <v>318</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="1">
         <v>2064529592</v>
       </c>
       <c r="D319">
@@ -7998,7 +7999,7 @@
       <c r="B320">
         <v>319</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="1">
         <v>2063929592</v>
       </c>
       <c r="D320">
@@ -8015,7 +8016,7 @@
       <c r="B321">
         <v>320</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="1">
         <v>2063329592</v>
       </c>
       <c r="D321">
@@ -8032,7 +8033,7 @@
       <c r="B322">
         <v>321</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="1">
         <v>2063629592</v>
       </c>
       <c r="D322">
@@ -8049,7 +8050,7 @@
       <c r="B323">
         <v>322</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="1">
         <v>2063029592</v>
       </c>
       <c r="D323">
@@ -8066,7 +8067,7 @@
       <c r="B324">
         <v>323</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="1">
         <v>2062579592</v>
       </c>
       <c r="D324">
@@ -8083,7 +8084,7 @@
       <c r="B325">
         <v>324</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="1">
         <v>2061979592</v>
       </c>
       <c r="D325">
@@ -8100,7 +8101,7 @@
       <c r="B326">
         <v>325</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="1">
         <v>2061979592</v>
       </c>
       <c r="D326">
@@ -8117,7 +8118,7 @@
       <c r="B327">
         <v>326</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="1">
         <v>2062129592</v>
       </c>
       <c r="D327">
@@ -8134,7 +8135,7 @@
       <c r="B328">
         <v>327</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="1">
         <v>2061529592</v>
       </c>
       <c r="D328">
@@ -8151,7 +8152,7 @@
       <c r="B329">
         <v>328</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="1">
         <v>2060929592</v>
       </c>
       <c r="D329">
@@ -8168,7 +8169,7 @@
       <c r="B330">
         <v>329</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="1">
         <v>2060329592</v>
       </c>
       <c r="D330">
@@ -8185,7 +8186,7 @@
       <c r="B331">
         <v>330</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="1">
         <v>2059729592</v>
       </c>
       <c r="D331">
@@ -8202,7 +8203,7 @@
       <c r="B332">
         <v>331</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="1">
         <v>2059881092</v>
       </c>
       <c r="D332">
@@ -8219,7 +8220,7 @@
       <c r="B333">
         <v>332</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>2059281092</v>
       </c>
       <c r="D333">
@@ -8236,7 +8237,7 @@
       <c r="B334">
         <v>333</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="1">
         <v>2058681092</v>
       </c>
       <c r="D334">
@@ -8253,7 +8254,7 @@
       <c r="B335">
         <v>334</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="1">
         <v>2058456092</v>
       </c>
       <c r="D335">
@@ -8270,7 +8271,7 @@
       <c r="B336">
         <v>335</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="1">
         <v>2058756092</v>
       </c>
       <c r="D336">
@@ -8287,7 +8288,7 @@
       <c r="B337">
         <v>336</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="1">
         <v>2059956092</v>
       </c>
       <c r="D337">
@@ -8304,7 +8305,7 @@
       <c r="B338">
         <v>337</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="1">
         <v>2059356092</v>
       </c>
       <c r="D338">
@@ -8321,7 +8322,7 @@
       <c r="B339">
         <v>338</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="1">
         <v>2058756092</v>
       </c>
       <c r="D339">
@@ -8338,7 +8339,7 @@
       <c r="B340">
         <v>339</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="1">
         <v>2058156092</v>
       </c>
       <c r="D340">
@@ -8355,7 +8356,7 @@
       <c r="B341">
         <v>340</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="1">
         <v>2057556092</v>
       </c>
       <c r="D341">
@@ -8372,7 +8373,7 @@
       <c r="B342">
         <v>341</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="1">
         <v>2056956092</v>
       </c>
       <c r="D342">
@@ -8389,7 +8390,7 @@
       <c r="B343">
         <v>342</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="1">
         <v>2056356092</v>
       </c>
       <c r="D343">
@@ -8406,7 +8407,7 @@
       <c r="B344">
         <v>343</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="1">
         <v>2055756092</v>
       </c>
       <c r="D344">
@@ -8423,7 +8424,7 @@
       <c r="B345">
         <v>344</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="1">
         <v>2055531092</v>
       </c>
       <c r="D345">
@@ -8440,7 +8441,7 @@
       <c r="B346">
         <v>345</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="1">
         <v>2059506092</v>
       </c>
       <c r="D346">
@@ -8457,7 +8458,7 @@
       <c r="B347">
         <v>346</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="1">
         <v>2058906092</v>
       </c>
       <c r="D347">
@@ -8474,7 +8475,7 @@
       <c r="B348">
         <v>347</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="1">
         <v>2058306092</v>
       </c>
       <c r="D348">
@@ -8491,7 +8492,7 @@
       <c r="B349">
         <v>348</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="1">
         <v>2057706092</v>
       </c>
       <c r="D349">
@@ -8508,7 +8509,7 @@
       <c r="B350">
         <v>349</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="1">
         <v>2057106092</v>
       </c>
       <c r="D350">
@@ -8525,7 +8526,7 @@
       <c r="B351">
         <v>350</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="1">
         <v>2056506092</v>
       </c>
       <c r="D351">
@@ -8542,7 +8543,7 @@
       <c r="B352">
         <v>351</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="1">
         <v>2063106092</v>
       </c>
       <c r="D352">
@@ -8559,7 +8560,7 @@
       <c r="B353">
         <v>352</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="1">
         <v>2062506092</v>
       </c>
       <c r="D353">
@@ -8576,7 +8577,7 @@
       <c r="B354">
         <v>353</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="1">
         <v>2061906092</v>
       </c>
       <c r="D354">
@@ -8593,7 +8594,7 @@
       <c r="B355">
         <v>354</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="1">
         <v>2061831092</v>
       </c>
       <c r="D355">
@@ -8610,7 +8611,7 @@
       <c r="B356">
         <v>355</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="1">
         <v>2061231092</v>
       </c>
       <c r="D356">
@@ -8627,7 +8628,7 @@
       <c r="B357">
         <v>356</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>2060781092</v>
       </c>
       <c r="D357">
@@ -8644,7 +8645,7 @@
       <c r="B358">
         <v>357</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="1">
         <v>2060631092</v>
       </c>
       <c r="D358">
@@ -8661,7 +8662,7 @@
       <c r="B359">
         <v>358</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>2060031092</v>
       </c>
       <c r="D359">
@@ -8678,7 +8679,7 @@
       <c r="B360">
         <v>359</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>2059581092</v>
       </c>
       <c r="D360">
@@ -8695,7 +8696,7 @@
       <c r="B361">
         <v>360</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="1">
         <v>2058981092</v>
       </c>
       <c r="D361">
@@ -8712,7 +8713,7 @@
       <c r="B362">
         <v>361</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="1">
         <v>2058981092</v>
       </c>
       <c r="D362">
@@ -8729,7 +8730,7 @@
       <c r="B363">
         <v>362</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="1">
         <v>2058381092</v>
       </c>
       <c r="D363">
@@ -8746,7 +8747,7 @@
       <c r="B364">
         <v>363</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="1">
         <v>2057781092</v>
       </c>
       <c r="D364">
@@ -8763,7 +8764,7 @@
       <c r="B365">
         <v>364</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="1">
         <v>2057781092</v>
       </c>
       <c r="D365">
@@ -8780,7 +8781,7 @@
       <c r="B366">
         <v>365</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="1">
         <v>2057781092</v>
       </c>
       <c r="D366">
@@ -8797,7 +8798,7 @@
       <c r="B367">
         <v>366</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="1">
         <v>2057781092</v>
       </c>
       <c r="D367">
@@ -8814,7 +8815,7 @@
       <c r="B368">
         <v>367</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="1">
         <v>2057181092</v>
       </c>
       <c r="D368">
@@ -8831,7 +8832,7 @@
       <c r="B369">
         <v>368</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="1">
         <v>2056581092</v>
       </c>
       <c r="D369">
@@ -8848,7 +8849,7 @@
       <c r="B370">
         <v>369</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="1">
         <v>2055981092</v>
       </c>
       <c r="D370">
@@ -8865,7 +8866,7 @@
       <c r="B371">
         <v>370</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="1">
         <v>2055381092</v>
       </c>
       <c r="D371">
@@ -8882,7 +8883,7 @@
       <c r="B372">
         <v>371</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="1">
         <v>2055156092</v>
       </c>
       <c r="D372">
@@ -8899,7 +8900,7 @@
       <c r="B373">
         <v>372</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="1">
         <v>2054556092</v>
       </c>
       <c r="D373">
@@ -8916,7 +8917,7 @@
       <c r="B374">
         <v>373</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="1">
         <v>2053956092</v>
       </c>
       <c r="D374">
@@ -8933,7 +8934,7 @@
       <c r="B375">
         <v>374</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="1">
         <v>2053356092</v>
       </c>
       <c r="D375">
@@ -8950,7 +8951,7 @@
       <c r="B376">
         <v>375</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="1">
         <v>2054856092</v>
       </c>
       <c r="D376">
@@ -8967,7 +8968,7 @@
       <c r="B377">
         <v>376</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="1">
         <v>2054256092</v>
       </c>
       <c r="D377">
@@ -8984,7 +8985,7 @@
       <c r="B378">
         <v>377</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="1">
         <v>2053656092</v>
       </c>
       <c r="D378">
@@ -9001,7 +9002,7 @@
       <c r="B379">
         <v>378</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="1">
         <v>2053056092</v>
       </c>
       <c r="D379">
@@ -9018,7 +9019,7 @@
       <c r="B380">
         <v>379</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="1">
         <v>2052456092</v>
       </c>
       <c r="D380">
@@ -9035,7 +9036,7 @@
       <c r="B381">
         <v>380</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="1">
         <v>2051856092</v>
       </c>
       <c r="D381">
@@ -9052,7 +9053,7 @@
       <c r="B382">
         <v>381</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="1">
         <v>2051256092</v>
       </c>
       <c r="D382">
@@ -9069,7 +9070,7 @@
       <c r="B383">
         <v>382</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="1">
         <v>2050881092</v>
       </c>
       <c r="D383">
@@ -9086,7 +9087,7 @@
       <c r="B384">
         <v>383</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="1">
         <v>2050281092</v>
       </c>
       <c r="D384">
@@ -9103,7 +9104,7 @@
       <c r="B385">
         <v>384</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="1">
         <v>2050131092</v>
       </c>
       <c r="D385">
@@ -9120,7 +9121,7 @@
       <c r="B386">
         <v>385</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="1">
         <v>2049531092</v>
       </c>
       <c r="D386">
@@ -9137,7 +9138,7 @@
       <c r="B387">
         <v>386</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="1">
         <v>2048931092</v>
       </c>
       <c r="D387">
@@ -9154,7 +9155,7 @@
       <c r="B388">
         <v>387</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="1">
         <v>2048331092</v>
       </c>
       <c r="D388">
@@ -9171,7 +9172,7 @@
       <c r="B389">
         <v>388</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="1">
         <v>2047731092</v>
       </c>
       <c r="D389">
@@ -9188,7 +9189,7 @@
       <c r="B390">
         <v>389</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="1">
         <v>2047131092</v>
       </c>
       <c r="D390">
@@ -9205,7 +9206,7 @@
       <c r="B391">
         <v>390</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="1">
         <v>2047431092</v>
       </c>
       <c r="D391">
@@ -9222,7 +9223,7 @@
       <c r="B392">
         <v>391</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="1">
         <v>2046831092</v>
       </c>
       <c r="D392">
@@ -9239,7 +9240,7 @@
       <c r="B393">
         <v>392</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="1">
         <v>2046231092</v>
       </c>
       <c r="D393">
@@ -9256,7 +9257,7 @@
       <c r="B394">
         <v>393</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="1">
         <v>2045931092</v>
       </c>
       <c r="D394">
@@ -9273,7 +9274,7 @@
       <c r="B395">
         <v>394</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="1">
         <v>2045331092</v>
       </c>
       <c r="D395">
@@ -9290,7 +9291,7 @@
       <c r="B396">
         <v>395</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="1">
         <v>2044731092</v>
       </c>
       <c r="D396">
@@ -9307,7 +9308,7 @@
       <c r="B397">
         <v>396</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="1">
         <v>2044506092</v>
       </c>
       <c r="D397">
@@ -9324,7 +9325,7 @@
       <c r="B398">
         <v>397</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="1">
         <v>2043906092</v>
       </c>
       <c r="D398">
@@ -9341,7 +9342,7 @@
       <c r="B399">
         <v>398</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="1">
         <v>2043831092</v>
       </c>
       <c r="D399">
@@ -9358,7 +9359,7 @@
       <c r="B400">
         <v>399</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="1">
         <v>2044581092</v>
       </c>
       <c r="D400">
@@ -9375,7 +9376,7 @@
       <c r="B401">
         <v>400</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="1">
         <v>2043981092</v>
       </c>
       <c r="D401">
@@ -9392,7 +9393,7 @@
       <c r="B402">
         <v>401</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="1">
         <v>2044581092</v>
       </c>
       <c r="D402">
@@ -9409,7 +9410,7 @@
       <c r="B403">
         <v>402</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="1">
         <v>2043981092</v>
       </c>
       <c r="D403">
@@ -9426,7 +9427,7 @@
       <c r="B404">
         <v>403</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="1">
         <v>2043381092</v>
       </c>
       <c r="D404">
@@ -9443,7 +9444,7 @@
       <c r="B405">
         <v>404</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="1">
         <v>2043156092</v>
       </c>
       <c r="D405">
@@ -9460,7 +9461,7 @@
       <c r="B406">
         <v>405</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="1">
         <v>2042556092</v>
       </c>
       <c r="D406">
@@ -9477,7 +9478,7 @@
       <c r="B407">
         <v>406</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="1">
         <v>2041956092</v>
       </c>
       <c r="D407">
@@ -9494,7 +9495,7 @@
       <c r="B408">
         <v>407</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="1">
         <v>2041356092</v>
       </c>
       <c r="D408">
@@ -9511,7 +9512,7 @@
       <c r="B409">
         <v>408</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="1">
         <v>2040756092</v>
       </c>
       <c r="D409">
@@ -9528,7 +9529,7 @@
       <c r="B410">
         <v>409</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="1">
         <v>2040156092</v>
       </c>
       <c r="D410">
@@ -9545,7 +9546,7 @@
       <c r="B411">
         <v>410</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="1">
         <v>2039706092</v>
       </c>
       <c r="D411">
@@ -9562,7 +9563,7 @@
       <c r="B412">
         <v>411</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="1">
         <v>2039106092</v>
       </c>
       <c r="D412">
@@ -9579,7 +9580,7 @@
       <c r="B413">
         <v>412</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="1">
         <v>2038506092</v>
       </c>
       <c r="D413">
@@ -9596,7 +9597,7 @@
       <c r="B414">
         <v>413</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="1">
         <v>2037906092</v>
       </c>
       <c r="D414">
@@ -9613,7 +9614,7 @@
       <c r="B415">
         <v>414</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="1">
         <v>2037306092</v>
       </c>
       <c r="D415">
@@ -9630,7 +9631,7 @@
       <c r="B416">
         <v>415</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="1">
         <v>2036931092</v>
       </c>
       <c r="D416">
@@ -9647,7 +9648,7 @@
       <c r="B417">
         <v>416</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="1">
         <v>2036481092</v>
       </c>
       <c r="D417">
@@ -9664,7 +9665,7 @@
       <c r="B418">
         <v>417</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="1">
         <v>2035881092</v>
       </c>
       <c r="D418">
@@ -9681,7 +9682,7 @@
       <c r="B419">
         <v>418</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="1">
         <v>2037681092</v>
       </c>
       <c r="D419">
@@ -9698,7 +9699,7 @@
       <c r="B420">
         <v>419</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="1">
         <v>2037081092</v>
       </c>
       <c r="D420">
@@ -9715,7 +9716,7 @@
       <c r="B421">
         <v>420</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="1">
         <v>2037981092</v>
       </c>
       <c r="D421">
@@ -9732,7 +9733,7 @@
       <c r="B422">
         <v>421</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="1">
         <v>2037381092</v>
       </c>
       <c r="D422">
@@ -9749,7 +9750,7 @@
       <c r="B423">
         <v>422</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="1">
         <v>2036781092</v>
       </c>
       <c r="D423">
@@ -9766,7 +9767,7 @@
       <c r="B424">
         <v>423</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="1">
         <v>2037531092</v>
       </c>
       <c r="D424">
@@ -9783,7 +9784,7 @@
       <c r="B425">
         <v>424</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="1">
         <v>2036931092</v>
       </c>
       <c r="D425">
@@ -9800,7 +9801,7 @@
       <c r="B426">
         <v>425</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="1">
         <v>2052531092</v>
       </c>
       <c r="D426">
@@ -9817,7 +9818,7 @@
       <c r="B427">
         <v>426</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="1">
         <v>2052156092</v>
       </c>
       <c r="D427">
@@ -9834,7 +9835,7 @@
       <c r="B428">
         <v>427</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="1">
         <v>2051556092</v>
       </c>
       <c r="D428">
@@ -9851,7 +9852,7 @@
       <c r="B429">
         <v>428</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="1">
         <v>2051106092</v>
       </c>
       <c r="D429">
@@ -9868,7 +9869,7 @@
       <c r="B430">
         <v>429</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="1">
         <v>2051106092</v>
       </c>
       <c r="D430">
@@ -9885,7 +9886,7 @@
       <c r="B431">
         <v>430</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="1">
         <v>2051106092</v>
       </c>
       <c r="D431">
@@ -9902,7 +9903,7 @@
       <c r="B432">
         <v>431</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="1">
         <v>2051106092</v>
       </c>
       <c r="D432">
@@ -9919,7 +9920,7 @@
       <c r="B433">
         <v>432</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="1">
         <v>2050506092</v>
       </c>
       <c r="D433">
@@ -9936,7 +9937,7 @@
       <c r="B434">
         <v>433</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="1">
         <v>2049906092</v>
       </c>
       <c r="D434">
@@ -9953,7 +9954,7 @@
       <c r="B435">
         <v>434</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="1">
         <v>2049756092</v>
       </c>
       <c r="D435">
@@ -9970,7 +9971,7 @@
       <c r="B436">
         <v>435</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="1">
         <v>2049156092</v>
       </c>
       <c r="D436">
@@ -9987,7 +9988,7 @@
       <c r="B437">
         <v>436</v>
       </c>
-      <c r="C437">
+      <c r="C437" s="1">
         <v>2048556092</v>
       </c>
       <c r="D437">
@@ -10004,7 +10005,7 @@
       <c r="B438">
         <v>437</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="1">
         <v>2047956092</v>
       </c>
       <c r="D438">
@@ -10021,7 +10022,7 @@
       <c r="B439">
         <v>438</v>
       </c>
-      <c r="C439">
+      <c r="C439" s="1">
         <v>2047356092</v>
       </c>
       <c r="D439">
@@ -10038,7 +10039,7 @@
       <c r="B440">
         <v>439</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="1">
         <v>2046756092</v>
       </c>
       <c r="D440">
@@ -10055,7 +10056,7 @@
       <c r="B441">
         <v>440</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="1">
         <v>2046156092</v>
       </c>
       <c r="D441">
@@ -10072,7 +10073,7 @@
       <c r="B442">
         <v>441</v>
       </c>
-      <c r="C442">
+      <c r="C442" s="1">
         <v>2045556092</v>
       </c>
       <c r="D442">
@@ -10089,7 +10090,7 @@
       <c r="B443">
         <v>442</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="1">
         <v>2044956092</v>
       </c>
       <c r="D443">
@@ -10106,7 +10107,7 @@
       <c r="B444">
         <v>443</v>
       </c>
-      <c r="C444">
+      <c r="C444" s="1">
         <v>2044956092</v>
       </c>
       <c r="D444">
@@ -10123,7 +10124,7 @@
       <c r="B445">
         <v>444</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="1">
         <v>2044356092</v>
       </c>
       <c r="D445">
@@ -10140,7 +10141,7 @@
       <c r="B446">
         <v>445</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="1">
         <v>2043756092</v>
       </c>
       <c r="D446">
@@ -10157,7 +10158,7 @@
       <c r="B447">
         <v>446</v>
       </c>
-      <c r="C447">
+      <c r="C447" s="1">
         <v>2043156092</v>
       </c>
       <c r="D447">
@@ -10174,7 +10175,7 @@
       <c r="B448">
         <v>447</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="1">
         <v>2043306092</v>
       </c>
       <c r="D448">
@@ -10191,7 +10192,7 @@
       <c r="B449">
         <v>448</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="1">
         <v>2042856092</v>
       </c>
       <c r="D449">
@@ -10208,7 +10209,7 @@
       <c r="B450">
         <v>449</v>
       </c>
-      <c r="C450">
+      <c r="C450" s="1">
         <v>2042256092</v>
       </c>
       <c r="D450">
@@ -10225,7 +10226,7 @@
       <c r="B451">
         <v>450</v>
       </c>
-      <c r="C451">
+      <c r="C451" s="1">
         <v>2041656092</v>
       </c>
       <c r="D451">
@@ -10242,7 +10243,7 @@
       <c r="B452">
         <v>451</v>
       </c>
-      <c r="C452">
+      <c r="C452" s="1">
         <v>2041722598</v>
       </c>
       <c r="D452">
@@ -10259,7 +10260,7 @@
       <c r="B453">
         <v>452</v>
       </c>
-      <c r="C453">
+      <c r="C453" s="1">
         <v>2041206092</v>
       </c>
       <c r="D453">
@@ -10276,7 +10277,7 @@
       <c r="B454">
         <v>453</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="1">
         <v>2040606092</v>
       </c>
       <c r="D454">
@@ -10293,7 +10294,7 @@
       <c r="B455">
         <v>454</v>
       </c>
-      <c r="C455">
+      <c r="C455" s="1">
         <v>2040006092</v>
       </c>
       <c r="D455">
@@ -10310,7 +10311,7 @@
       <c r="B456">
         <v>455</v>
       </c>
-      <c r="C456">
+      <c r="C456" s="1">
         <v>2039406092</v>
       </c>
       <c r="D456">
@@ -10327,7 +10328,7 @@
       <c r="B457">
         <v>456</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="1">
         <v>2038806092</v>
       </c>
       <c r="D457">
@@ -10344,7 +10345,7 @@
       <c r="B458">
         <v>457</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="1">
         <v>2038206092</v>
       </c>
       <c r="D458">
@@ -10361,7 +10362,7 @@
       <c r="B459">
         <v>458</v>
       </c>
-      <c r="C459">
+      <c r="C459" s="1">
         <v>2038281092</v>
       </c>
       <c r="D459">
@@ -10378,7 +10379,7 @@
       <c r="B460">
         <v>459</v>
       </c>
-      <c r="C460">
+      <c r="C460" s="1">
         <v>2037681092</v>
       </c>
       <c r="D460">
@@ -10395,7 +10396,7 @@
       <c r="B461">
         <v>460</v>
       </c>
-      <c r="C461">
+      <c r="C461" s="1">
         <v>2037081092</v>
       </c>
       <c r="D461">
@@ -10412,7 +10413,7 @@
       <c r="B462">
         <v>461</v>
       </c>
-      <c r="C462">
+      <c r="C462" s="1">
         <v>2036481092</v>
       </c>
       <c r="D462">
@@ -10429,7 +10430,7 @@
       <c r="B463">
         <v>462</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="1">
         <v>2037681092</v>
       </c>
       <c r="D463">
@@ -10446,7 +10447,7 @@
       <c r="B464">
         <v>463</v>
       </c>
-      <c r="C464">
+      <c r="C464" s="1">
         <v>2037681092</v>
       </c>
       <c r="D464">
@@ -10463,7 +10464,7 @@
       <c r="B465">
         <v>464</v>
       </c>
-      <c r="C465">
+      <c r="C465" s="1">
         <v>2037831092</v>
       </c>
       <c r="D465">
@@ -10480,7 +10481,7 @@
       <c r="B466">
         <v>465</v>
       </c>
-      <c r="C466">
+      <c r="C466" s="1">
         <v>2037681092</v>
       </c>
       <c r="D466">
@@ -10497,7 +10498,7 @@
       <c r="B467">
         <v>466</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="1">
         <v>2037081092</v>
       </c>
       <c r="D467">
@@ -10514,7 +10515,7 @@
       <c r="B468">
         <v>467</v>
       </c>
-      <c r="C468">
+      <c r="C468" s="1">
         <v>2036481092</v>
       </c>
       <c r="D468">
@@ -10531,7 +10532,7 @@
       <c r="B469">
         <v>468</v>
       </c>
-      <c r="C469">
+      <c r="C469" s="1">
         <v>2035881092</v>
       </c>
       <c r="D469">
@@ -10548,7 +10549,7 @@
       <c r="B470">
         <v>469</v>
       </c>
-      <c r="C470">
+      <c r="C470" s="1">
         <v>2035506092</v>
       </c>
       <c r="D470">
@@ -10565,7 +10566,7 @@
       <c r="B471">
         <v>470</v>
       </c>
-      <c r="C471">
+      <c r="C471" s="1">
         <v>2034906092</v>
       </c>
       <c r="D471">
@@ -10582,7 +10583,7 @@
       <c r="B472">
         <v>471</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="1">
         <v>2034906092</v>
       </c>
       <c r="D472">
@@ -10599,7 +10600,7 @@
       <c r="B473">
         <v>472</v>
       </c>
-      <c r="C473">
+      <c r="C473" s="1">
         <v>2034306092</v>
       </c>
       <c r="D473">
@@ -10616,7 +10617,7 @@
       <c r="B474">
         <v>473</v>
       </c>
-      <c r="C474">
+      <c r="C474" s="1">
         <v>2034456092</v>
       </c>
       <c r="D474">
@@ -10633,7 +10634,7 @@
       <c r="B475">
         <v>474</v>
       </c>
-      <c r="C475">
+      <c r="C475" s="1">
         <v>2034156092</v>
       </c>
       <c r="D475">
@@ -10650,7 +10651,7 @@
       <c r="B476">
         <v>475</v>
       </c>
-      <c r="C476">
+      <c r="C476" s="1">
         <v>2033556092</v>
       </c>
       <c r="D476">
@@ -10667,7 +10668,7 @@
       <c r="B477">
         <v>476</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="1">
         <v>2033856092</v>
       </c>
       <c r="D477">
@@ -10684,7 +10685,7 @@
       <c r="B478">
         <v>477</v>
       </c>
-      <c r="C478">
+      <c r="C478" s="1">
         <v>2033256092</v>
       </c>
       <c r="D478">
@@ -10701,7 +10702,7 @@
       <c r="B479">
         <v>478</v>
       </c>
-      <c r="C479">
+      <c r="C479" s="1">
         <v>2032656092</v>
       </c>
       <c r="D479">
@@ -10718,7 +10719,7 @@
       <c r="B480">
         <v>479</v>
       </c>
-      <c r="C480">
+      <c r="C480" s="1">
         <v>2032056092</v>
       </c>
       <c r="D480">
@@ -10735,7 +10736,7 @@
       <c r="B481">
         <v>480</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="1">
         <v>2031456092</v>
       </c>
       <c r="D481">
@@ -10752,7 +10753,7 @@
       <c r="B482">
         <v>481</v>
       </c>
-      <c r="C482">
+      <c r="C482" s="1">
         <v>2030856092</v>
       </c>
       <c r="D482">
@@ -10769,7 +10770,7 @@
       <c r="B483">
         <v>482</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="1">
         <v>2030256092</v>
       </c>
       <c r="D483">
@@ -10786,7 +10787,7 @@
       <c r="B484">
         <v>483</v>
       </c>
-      <c r="C484">
+      <c r="C484" s="1">
         <v>2030256092</v>
       </c>
       <c r="D484">
@@ -10803,7 +10804,7 @@
       <c r="B485">
         <v>484</v>
       </c>
-      <c r="C485">
+      <c r="C485" s="1">
         <v>2029656092</v>
       </c>
       <c r="D485">
@@ -10820,7 +10821,7 @@
       <c r="B486">
         <v>485</v>
       </c>
-      <c r="C486">
+      <c r="C486" s="1">
         <v>2029656092</v>
       </c>
       <c r="D486">
@@ -10837,7 +10838,7 @@
       <c r="B487">
         <v>486</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="1">
         <v>2029056092</v>
       </c>
       <c r="D487">
@@ -10854,7 +10855,7 @@
       <c r="B488">
         <v>487</v>
       </c>
-      <c r="C488">
+      <c r="C488" s="1">
         <v>2029656092</v>
       </c>
       <c r="D488">
@@ -10871,7 +10872,7 @@
       <c r="B489">
         <v>488</v>
       </c>
-      <c r="C489">
+      <c r="C489" s="1">
         <v>2029806092</v>
       </c>
       <c r="D489">
@@ -10888,7 +10889,7 @@
       <c r="B490">
         <v>489</v>
       </c>
-      <c r="C490">
+      <c r="C490" s="1">
         <v>2029356092</v>
       </c>
       <c r="D490">
@@ -10905,7 +10906,7 @@
       <c r="B491">
         <v>490</v>
       </c>
-      <c r="C491">
+      <c r="C491" s="1">
         <v>2028756092</v>
       </c>
       <c r="D491">
@@ -10922,7 +10923,7 @@
       <c r="B492">
         <v>491</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="1">
         <v>2029037553</v>
       </c>
       <c r="D492">
@@ -10939,7 +10940,7 @@
       <c r="B493">
         <v>492</v>
       </c>
-      <c r="C493">
+      <c r="C493" s="1">
         <v>2029056092</v>
       </c>
       <c r="D493">
@@ -10956,7 +10957,7 @@
       <c r="B494">
         <v>493</v>
       </c>
-      <c r="C494">
+      <c r="C494" s="1">
         <v>2028606092</v>
       </c>
       <c r="D494">
@@ -10973,7 +10974,7 @@
       <c r="B495">
         <v>494</v>
       </c>
-      <c r="C495">
+      <c r="C495" s="1">
         <v>2028606092</v>
       </c>
       <c r="D495">
@@ -10990,7 +10991,7 @@
       <c r="B496">
         <v>495</v>
       </c>
-      <c r="C496">
+      <c r="C496" s="1">
         <v>2028006092</v>
       </c>
       <c r="D496">
@@ -11007,7 +11008,7 @@
       <c r="B497">
         <v>496</v>
       </c>
-      <c r="C497">
+      <c r="C497" s="1">
         <v>2027406092</v>
       </c>
       <c r="D497">
@@ -11024,7 +11025,7 @@
       <c r="B498">
         <v>497</v>
       </c>
-      <c r="C498">
+      <c r="C498" s="1">
         <v>2026806092</v>
       </c>
       <c r="D498">
@@ -11041,7 +11042,7 @@
       <c r="B499">
         <v>498</v>
       </c>
-      <c r="C499">
+      <c r="C499" s="1">
         <v>2026206092</v>
       </c>
       <c r="D499">
@@ -11058,7 +11059,7 @@
       <c r="B500">
         <v>499</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="1">
         <v>2025606092</v>
       </c>
       <c r="D500">
@@ -11075,7 +11076,7 @@
       <c r="B501">
         <v>500</v>
       </c>
-      <c r="C501">
+      <c r="C501" s="1">
         <v>2025156092</v>
       </c>
       <c r="D501">
@@ -11092,7 +11093,7 @@
       <c r="B502">
         <v>501</v>
       </c>
-      <c r="C502">
+      <c r="C502" s="1">
         <v>2024556092</v>
       </c>
       <c r="D502">
@@ -11109,7 +11110,7 @@
       <c r="B503">
         <v>502</v>
       </c>
-      <c r="C503">
+      <c r="C503" s="1">
         <v>2023956092</v>
       </c>
       <c r="D503">
@@ -11126,7 +11127,7 @@
       <c r="B504">
         <v>503</v>
       </c>
-      <c r="C504">
+      <c r="C504" s="1">
         <v>2023356092</v>
       </c>
       <c r="D504">
@@ -11143,7 +11144,7 @@
       <c r="B505">
         <v>504</v>
       </c>
-      <c r="C505">
+      <c r="C505" s="1">
         <v>2022156092</v>
       </c>
       <c r="D505">
@@ -11160,7 +11161,7 @@
       <c r="B506">
         <v>505</v>
       </c>
-      <c r="C506">
+      <c r="C506" s="1">
         <v>2021556092</v>
       </c>
       <c r="D506">
@@ -11177,7 +11178,7 @@
       <c r="B507">
         <v>506</v>
       </c>
-      <c r="C507">
+      <c r="C507" s="1">
         <v>2021556092</v>
       </c>
       <c r="D507">
@@ -11194,7 +11195,7 @@
       <c r="B508">
         <v>507</v>
       </c>
-      <c r="C508">
+      <c r="C508" s="1">
         <v>2020956092</v>
       </c>
       <c r="D508">
@@ -11211,7 +11212,7 @@
       <c r="B509">
         <v>508</v>
       </c>
-      <c r="C509">
+      <c r="C509" s="1">
         <v>2020956092</v>
       </c>
       <c r="D509">
@@ -11228,7 +11229,7 @@
       <c r="B510">
         <v>509</v>
       </c>
-      <c r="C510">
+      <c r="C510" s="1">
         <v>2020356092</v>
       </c>
       <c r="D510">
@@ -11245,7 +11246,7 @@
       <c r="B511">
         <v>510</v>
       </c>
-      <c r="C511">
+      <c r="C511" s="1">
         <v>2019531092</v>
       </c>
       <c r="D511">
@@ -11262,7 +11263,7 @@
       <c r="B512">
         <v>511</v>
       </c>
-      <c r="C512">
+      <c r="C512" s="1">
         <v>2019081092</v>
       </c>
       <c r="D512">
@@ -11279,7 +11280,7 @@
       <c r="B513">
         <v>512</v>
       </c>
-      <c r="C513">
+      <c r="C513" s="1">
         <v>2019081092</v>
       </c>
       <c r="D513">
@@ -11296,7 +11297,7 @@
       <c r="B514">
         <v>513</v>
       </c>
-      <c r="C514">
+      <c r="C514" s="1">
         <v>2018481092</v>
       </c>
       <c r="D514">
@@ -11313,7 +11314,7 @@
       <c r="B515">
         <v>514</v>
       </c>
-      <c r="C515">
+      <c r="C515" s="1">
         <v>2017881092</v>
       </c>
       <c r="D515">
@@ -11330,7 +11331,7 @@
       <c r="B516">
         <v>515</v>
       </c>
-      <c r="C516">
+      <c r="C516" s="1">
         <v>2017281092</v>
       </c>
       <c r="D516">
@@ -11347,7 +11348,7 @@
       <c r="B517">
         <v>516</v>
       </c>
-      <c r="C517">
+      <c r="C517" s="1">
         <v>2025481092</v>
       </c>
       <c r="D517">
@@ -11366,10 +11367,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E517"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="P494" sqref="P494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -16706,3463 +16707,3208 @@
         <v>313</v>
       </c>
       <c r="C314" s="1">
-        <v>2067079592</v>
+        <v>2066479592</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E314">
-        <v>1188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B315">
         <v>314</v>
       </c>
       <c r="C315" s="1">
-        <v>2066479592</v>
+        <v>2065879592</v>
       </c>
       <c r="D315">
         <v>-600000</v>
       </c>
       <c r="E315">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B316">
         <v>315</v>
       </c>
       <c r="C316" s="1">
-        <v>2065879592</v>
+        <v>2065279592</v>
       </c>
       <c r="D316">
         <v>-600000</v>
       </c>
       <c r="E316">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B317">
         <v>316</v>
       </c>
       <c r="C317" s="1">
-        <v>2065279592</v>
+        <v>2065129592</v>
       </c>
       <c r="D317">
-        <v>-600000</v>
+        <v>-314599</v>
       </c>
       <c r="E317">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B318">
         <v>317</v>
       </c>
       <c r="C318" s="1">
-        <v>2065129592</v>
+        <v>2064529592</v>
       </c>
       <c r="D318">
-        <v>-314599</v>
+        <v>-600000</v>
       </c>
       <c r="E318">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B319">
         <v>318</v>
       </c>
       <c r="C319" s="1">
-        <v>2064529592</v>
+        <v>2063929592</v>
       </c>
       <c r="D319">
         <v>-600000</v>
       </c>
       <c r="E319">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B320">
         <v>319</v>
       </c>
       <c r="C320" s="1">
-        <v>2063929592</v>
+        <v>2063329592</v>
       </c>
       <c r="D320">
         <v>-600000</v>
       </c>
       <c r="E320">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B321">
         <v>320</v>
       </c>
       <c r="C321" s="1">
-        <v>2063329592</v>
+        <v>2063629592</v>
       </c>
       <c r="D321">
-        <v>-600000</v>
+        <v>-117613</v>
       </c>
       <c r="E321">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B322">
         <v>321</v>
       </c>
       <c r="C322" s="1">
-        <v>2063629592</v>
+        <v>2063029592</v>
       </c>
       <c r="D322">
-        <v>-117613</v>
+        <v>-600000</v>
       </c>
       <c r="E322">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B323">
         <v>322</v>
       </c>
       <c r="C323" s="1">
-        <v>2063029592</v>
+        <v>2062579592</v>
       </c>
       <c r="D323">
-        <v>-600000</v>
+        <v>-510518</v>
       </c>
       <c r="E323">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B324">
         <v>323</v>
       </c>
       <c r="C324" s="1">
-        <v>2062579592</v>
+        <v>2061979592</v>
       </c>
       <c r="D324">
-        <v>-510518</v>
+        <v>0</v>
       </c>
       <c r="E324">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B325">
         <v>324</v>
       </c>
       <c r="C325" s="1">
-        <v>2061979592</v>
+        <v>2062129592</v>
       </c>
       <c r="D325">
-        <v>-600000</v>
+        <v>-119250</v>
       </c>
       <c r="E325">
-        <v>77</v>
+        <v>176</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B326">
         <v>325</v>
       </c>
       <c r="C326" s="1">
-        <v>2061979592</v>
+        <v>2061529592</v>
       </c>
       <c r="D326">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E326">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B327">
         <v>326</v>
       </c>
       <c r="C327" s="1">
-        <v>2062129592</v>
+        <v>2060929592</v>
       </c>
       <c r="D327">
-        <v>-119250</v>
+        <v>-600000</v>
       </c>
       <c r="E327">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B328">
         <v>327</v>
       </c>
       <c r="C328" s="1">
-        <v>2061529592</v>
+        <v>2060329592</v>
       </c>
       <c r="D328">
         <v>-600000</v>
       </c>
       <c r="E328">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B329">
         <v>328</v>
       </c>
       <c r="C329" s="1">
-        <v>2060929592</v>
+        <v>2059729592</v>
       </c>
       <c r="D329">
         <v>-600000</v>
       </c>
       <c r="E329">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B330">
         <v>329</v>
       </c>
       <c r="C330" s="1">
-        <v>2060329592</v>
+        <v>2059881092</v>
       </c>
       <c r="D330">
-        <v>-600000</v>
+        <v>-170936</v>
       </c>
       <c r="E330">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B331">
         <v>330</v>
       </c>
       <c r="C331" s="1">
-        <v>2059729592</v>
+        <v>2059281092</v>
       </c>
       <c r="D331">
         <v>-600000</v>
       </c>
       <c r="E331">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B332">
         <v>331</v>
       </c>
       <c r="C332" s="1">
-        <v>2059881092</v>
+        <v>2058681092</v>
       </c>
       <c r="D332">
-        <v>-170936</v>
+        <v>-600000</v>
       </c>
       <c r="E332">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B333">
         <v>332</v>
       </c>
       <c r="C333" s="1">
-        <v>2059281092</v>
+        <v>2058456092</v>
       </c>
       <c r="D333">
-        <v>-600000</v>
+        <v>-390160</v>
       </c>
       <c r="E333">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B334">
         <v>333</v>
       </c>
       <c r="C334" s="1">
-        <v>2058681092</v>
+        <v>2058756092</v>
       </c>
       <c r="D334">
-        <v>-600000</v>
+        <v>-130439</v>
       </c>
       <c r="E334">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B335">
         <v>334</v>
       </c>
       <c r="C335" s="1">
-        <v>2058456092</v>
+        <v>2059956092</v>
       </c>
       <c r="D335">
-        <v>-390160</v>
+        <v>379392</v>
       </c>
       <c r="E335">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B336">
         <v>335</v>
       </c>
       <c r="C336" s="1">
-        <v>2058756092</v>
+        <v>2059356092</v>
       </c>
       <c r="D336">
-        <v>-130439</v>
+        <v>-600000</v>
       </c>
       <c r="E336">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B337">
         <v>336</v>
       </c>
       <c r="C337" s="1">
-        <v>2059956092</v>
+        <v>2058756092</v>
       </c>
       <c r="D337">
-        <v>379392</v>
+        <v>-600000</v>
       </c>
       <c r="E337">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B338">
         <v>337</v>
       </c>
       <c r="C338" s="1">
-        <v>2059356092</v>
+        <v>2058156092</v>
       </c>
       <c r="D338">
         <v>-600000</v>
       </c>
       <c r="E338">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B339">
         <v>338</v>
       </c>
       <c r="C339" s="1">
-        <v>2058756092</v>
+        <v>2057556092</v>
       </c>
       <c r="D339">
         <v>-600000</v>
       </c>
       <c r="E339">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B340">
         <v>339</v>
       </c>
       <c r="C340" s="1">
-        <v>2058156092</v>
+        <v>2056956092</v>
       </c>
       <c r="D340">
         <v>-600000</v>
       </c>
       <c r="E340">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B341">
         <v>340</v>
       </c>
       <c r="C341" s="1">
-        <v>2057556092</v>
+        <v>2056356092</v>
       </c>
       <c r="D341">
         <v>-600000</v>
       </c>
       <c r="E341">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B342">
         <v>341</v>
       </c>
       <c r="C342" s="1">
-        <v>2056956092</v>
+        <v>2055756092</v>
       </c>
       <c r="D342">
         <v>-600000</v>
       </c>
       <c r="E342">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B343">
         <v>342</v>
       </c>
       <c r="C343" s="1">
-        <v>2056356092</v>
+        <v>2055531092</v>
       </c>
       <c r="D343">
-        <v>-600000</v>
+        <v>-362211</v>
       </c>
       <c r="E343">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B344">
         <v>343</v>
       </c>
       <c r="C344" s="1">
-        <v>2055756092</v>
+        <v>2059506092</v>
       </c>
       <c r="D344">
-        <v>-600000</v>
+        <v>2638647</v>
       </c>
       <c r="E344">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B345">
         <v>344</v>
       </c>
       <c r="C345" s="1">
-        <v>2055531092</v>
+        <v>2058906092</v>
       </c>
       <c r="D345">
-        <v>-362211</v>
+        <v>-600000</v>
       </c>
       <c r="E345">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B346">
         <v>345</v>
       </c>
       <c r="C346" s="1">
-        <v>2059506092</v>
+        <v>2058306092</v>
       </c>
       <c r="D346">
-        <v>2638647</v>
+        <v>-600000</v>
       </c>
       <c r="E346">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B347">
         <v>346</v>
       </c>
       <c r="C347" s="1">
-        <v>2058906092</v>
+        <v>2057706092</v>
       </c>
       <c r="D347">
         <v>-600000</v>
       </c>
       <c r="E347">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B348">
         <v>347</v>
       </c>
       <c r="C348" s="1">
-        <v>2058306092</v>
+        <v>2057106092</v>
       </c>
       <c r="D348">
         <v>-600000</v>
       </c>
       <c r="E348">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B349">
         <v>348</v>
       </c>
       <c r="C349" s="1">
-        <v>2057706092</v>
+        <v>2056506092</v>
       </c>
       <c r="D349">
         <v>-600000</v>
       </c>
       <c r="E349">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B350">
         <v>349</v>
       </c>
       <c r="C350" s="1">
-        <v>2057106092</v>
+        <v>2063106092</v>
       </c>
       <c r="D350">
-        <v>-600000</v>
+        <v>3133681</v>
       </c>
       <c r="E350">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B351">
         <v>350</v>
       </c>
       <c r="C351" s="1">
-        <v>2056506092</v>
+        <v>2062506092</v>
       </c>
       <c r="D351">
         <v>-600000</v>
       </c>
       <c r="E351">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B352">
         <v>351</v>
       </c>
       <c r="C352" s="1">
-        <v>2063106092</v>
+        <v>2061906092</v>
       </c>
       <c r="D352">
-        <v>3133681</v>
+        <v>-600000</v>
       </c>
       <c r="E352">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B353">
         <v>352</v>
       </c>
       <c r="C353" s="1">
-        <v>2062506092</v>
+        <v>2061831092</v>
       </c>
       <c r="D353">
-        <v>-600000</v>
+        <v>-270704</v>
       </c>
       <c r="E353">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B354">
         <v>353</v>
       </c>
       <c r="C354" s="1">
-        <v>2061906092</v>
+        <v>2061231092</v>
       </c>
       <c r="D354">
         <v>-600000</v>
       </c>
       <c r="E354">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B355">
         <v>354</v>
       </c>
       <c r="C355" s="1">
-        <v>2061831092</v>
+        <v>2060781092</v>
       </c>
       <c r="D355">
-        <v>-270704</v>
+        <v>-511135</v>
       </c>
       <c r="E355">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B356">
         <v>355</v>
       </c>
       <c r="C356" s="1">
-        <v>2061231092</v>
+        <v>2060631092</v>
       </c>
       <c r="D356">
-        <v>-600000</v>
+        <v>-316236</v>
       </c>
       <c r="E356">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B357">
         <v>356</v>
       </c>
       <c r="C357" s="1">
-        <v>2060781092</v>
+        <v>2060031092</v>
       </c>
       <c r="D357">
-        <v>-511135</v>
+        <v>-600000</v>
       </c>
       <c r="E357">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B358">
         <v>357</v>
       </c>
       <c r="C358" s="1">
-        <v>2060631092</v>
+        <v>2059581092</v>
       </c>
       <c r="D358">
-        <v>-316236</v>
+        <v>-495938</v>
       </c>
       <c r="E358">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B359">
         <v>358</v>
       </c>
       <c r="C359" s="1">
-        <v>2060031092</v>
+        <v>2058981092</v>
       </c>
       <c r="D359">
-        <v>-600000</v>
+        <v>0</v>
       </c>
       <c r="E359">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B360">
         <v>359</v>
       </c>
       <c r="C360" s="1">
-        <v>2059581092</v>
+        <v>2058381092</v>
       </c>
       <c r="D360">
-        <v>-495938</v>
+        <v>-600000</v>
       </c>
       <c r="E360">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B361">
         <v>360</v>
       </c>
       <c r="C361" s="1">
-        <v>2058981092</v>
+        <v>2057781092</v>
       </c>
       <c r="D361">
         <v>-600000</v>
       </c>
       <c r="E361">
-        <v>1142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B362">
         <v>361</v>
       </c>
       <c r="C362" s="1">
-        <v>2058981092</v>
+        <v>2057181092</v>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E362">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B363">
         <v>362</v>
       </c>
       <c r="C363" s="1">
-        <v>2058381092</v>
+        <v>2056581092</v>
       </c>
       <c r="D363">
         <v>-600000</v>
       </c>
       <c r="E363">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B364">
         <v>363</v>
       </c>
       <c r="C364" s="1">
-        <v>2057781092</v>
+        <v>2055981092</v>
       </c>
       <c r="D364">
         <v>-600000</v>
       </c>
       <c r="E364">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B365">
         <v>364</v>
       </c>
       <c r="C365" s="1">
-        <v>2057781092</v>
+        <v>2055381092</v>
       </c>
       <c r="D365">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E365">
-        <v>1140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B366">
         <v>365</v>
       </c>
       <c r="C366" s="1">
-        <v>2057781092</v>
+        <v>2055156092</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>-376414</v>
       </c>
       <c r="E366">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B367">
         <v>366</v>
       </c>
       <c r="C367" s="1">
-        <v>2057781092</v>
+        <v>2054556092</v>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E367">
-        <v>1140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B368">
         <v>367</v>
       </c>
       <c r="C368" s="1">
-        <v>2057181092</v>
+        <v>2053956092</v>
       </c>
       <c r="D368">
         <v>-600000</v>
       </c>
       <c r="E368">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B369">
         <v>368</v>
       </c>
       <c r="C369" s="1">
-        <v>2056581092</v>
+        <v>2053356092</v>
       </c>
       <c r="D369">
         <v>-600000</v>
       </c>
       <c r="E369">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B370">
         <v>369</v>
       </c>
       <c r="C370" s="1">
-        <v>2055981092</v>
+        <v>2054856092</v>
       </c>
       <c r="D370">
-        <v>-600000</v>
+        <v>1072289</v>
       </c>
       <c r="E370">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B371">
         <v>370</v>
       </c>
       <c r="C371" s="1">
-        <v>2055381092</v>
+        <v>2054256092</v>
       </c>
       <c r="D371">
         <v>-600000</v>
       </c>
       <c r="E371">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B372">
         <v>371</v>
       </c>
       <c r="C372" s="1">
-        <v>2055156092</v>
+        <v>2053656092</v>
       </c>
       <c r="D372">
-        <v>-376414</v>
+        <v>-600000</v>
       </c>
       <c r="E372">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B373">
         <v>372</v>
       </c>
       <c r="C373" s="1">
-        <v>2054556092</v>
+        <v>2053056092</v>
       </c>
       <c r="D373">
         <v>-600000</v>
       </c>
       <c r="E373">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B374">
         <v>373</v>
       </c>
       <c r="C374" s="1">
-        <v>2053956092</v>
+        <v>2052456092</v>
       </c>
       <c r="D374">
         <v>-600000</v>
       </c>
       <c r="E374">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B375">
         <v>374</v>
       </c>
       <c r="C375" s="1">
-        <v>2053356092</v>
+        <v>2051856092</v>
       </c>
       <c r="D375">
         <v>-600000</v>
       </c>
       <c r="E375">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B376">
         <v>375</v>
       </c>
       <c r="C376" s="1">
-        <v>2054856092</v>
+        <v>2051256092</v>
       </c>
       <c r="D376">
-        <v>1072289</v>
+        <v>-600000</v>
       </c>
       <c r="E376">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B377">
         <v>376</v>
       </c>
       <c r="C377" s="1">
-        <v>2054256092</v>
+        <v>2050881092</v>
       </c>
       <c r="D377">
-        <v>-600000</v>
+        <v>-453033</v>
       </c>
       <c r="E377">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B378">
         <v>377</v>
       </c>
       <c r="C378" s="1">
-        <v>2053656092</v>
+        <v>2050281092</v>
       </c>
       <c r="D378">
         <v>-600000</v>
       </c>
       <c r="E378">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B379">
         <v>378</v>
       </c>
       <c r="C379" s="1">
-        <v>2053056092</v>
+        <v>2050131092</v>
       </c>
       <c r="D379">
-        <v>-600000</v>
+        <v>-320309</v>
       </c>
       <c r="E379">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B380">
         <v>379</v>
       </c>
       <c r="C380" s="1">
-        <v>2052456092</v>
+        <v>2049531092</v>
       </c>
       <c r="D380">
         <v>-600000</v>
       </c>
       <c r="E380">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B381">
         <v>380</v>
       </c>
       <c r="C381" s="1">
-        <v>2051856092</v>
+        <v>2048931092</v>
       </c>
       <c r="D381">
         <v>-600000</v>
       </c>
       <c r="E381">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B382">
         <v>381</v>
       </c>
       <c r="C382" s="1">
-        <v>2051256092</v>
+        <v>2048331092</v>
       </c>
       <c r="D382">
         <v>-600000</v>
       </c>
       <c r="E382">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B383">
         <v>382</v>
       </c>
       <c r="C383" s="1">
-        <v>2050881092</v>
+        <v>2047731092</v>
       </c>
       <c r="D383">
-        <v>-453033</v>
+        <v>-600000</v>
       </c>
       <c r="E383">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B384">
         <v>383</v>
       </c>
       <c r="C384" s="1">
-        <v>2050281092</v>
+        <v>2047131092</v>
       </c>
       <c r="D384">
         <v>-600000</v>
       </c>
       <c r="E384">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B385">
         <v>384</v>
       </c>
       <c r="C385" s="1">
-        <v>2050131092</v>
+        <v>2047431092</v>
       </c>
       <c r="D385">
-        <v>-320309</v>
+        <v>-27032</v>
       </c>
       <c r="E385">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B386">
         <v>385</v>
       </c>
       <c r="C386" s="1">
-        <v>2049531092</v>
+        <v>2046831092</v>
       </c>
       <c r="D386">
         <v>-600000</v>
       </c>
       <c r="E386">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B387">
         <v>386</v>
       </c>
       <c r="C387" s="1">
-        <v>2048931092</v>
+        <v>2046231092</v>
       </c>
       <c r="D387">
         <v>-600000</v>
       </c>
       <c r="E387">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B388">
         <v>387</v>
       </c>
       <c r="C388" s="1">
-        <v>2048331092</v>
+        <v>2045931092</v>
       </c>
       <c r="D388">
-        <v>-600000</v>
+        <v>-409424</v>
       </c>
       <c r="E388">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B389">
         <v>388</v>
       </c>
       <c r="C389" s="1">
-        <v>2047731092</v>
+        <v>2045331092</v>
       </c>
       <c r="D389">
         <v>-600000</v>
       </c>
       <c r="E389">
-        <v>117</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B390">
         <v>389</v>
       </c>
       <c r="C390" s="1">
-        <v>2047131092</v>
+        <v>2044731092</v>
       </c>
       <c r="D390">
         <v>-600000</v>
       </c>
       <c r="E390">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B391">
         <v>390</v>
       </c>
       <c r="C391" s="1">
-        <v>2047431092</v>
+        <v>2044506092</v>
       </c>
       <c r="D391">
-        <v>-27032</v>
+        <v>-393985</v>
       </c>
       <c r="E391">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B392">
         <v>391</v>
       </c>
       <c r="C392" s="1">
-        <v>2046831092</v>
+        <v>2043906092</v>
       </c>
       <c r="D392">
         <v>-600000</v>
       </c>
       <c r="E392">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B393">
         <v>392</v>
       </c>
       <c r="C393" s="1">
-        <v>2046231092</v>
+        <v>2043831092</v>
       </c>
       <c r="D393">
-        <v>-600000</v>
+        <v>-264737</v>
       </c>
       <c r="E393">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B394">
         <v>393</v>
       </c>
       <c r="C394" s="1">
-        <v>2045931092</v>
+        <v>2044581092</v>
       </c>
       <c r="D394">
-        <v>-409424</v>
+        <v>84780</v>
       </c>
       <c r="E394">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B395">
         <v>394</v>
       </c>
       <c r="C395" s="1">
-        <v>2045331092</v>
+        <v>2043981092</v>
       </c>
       <c r="D395">
         <v>-600000</v>
       </c>
       <c r="E395">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B396">
         <v>395</v>
       </c>
       <c r="C396" s="1">
-        <v>2044731092</v>
+        <v>2044581092</v>
       </c>
       <c r="D396">
-        <v>-600000</v>
+        <v>100311</v>
       </c>
       <c r="E396">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B397">
         <v>396</v>
       </c>
       <c r="C397" s="1">
-        <v>2044506092</v>
+        <v>2043981092</v>
       </c>
       <c r="D397">
-        <v>-393985</v>
+        <v>-600000</v>
       </c>
       <c r="E397">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B398">
         <v>397</v>
       </c>
       <c r="C398" s="1">
-        <v>2043906092</v>
+        <v>2043381092</v>
       </c>
       <c r="D398">
         <v>-600000</v>
       </c>
       <c r="E398">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B399">
         <v>398</v>
       </c>
       <c r="C399" s="1">
-        <v>2043831092</v>
+        <v>2043156092</v>
       </c>
       <c r="D399">
-        <v>-264737</v>
+        <v>-396771</v>
       </c>
       <c r="E399">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B400">
         <v>399</v>
       </c>
       <c r="C400" s="1">
-        <v>2044581092</v>
+        <v>2042556092</v>
       </c>
       <c r="D400">
-        <v>84780</v>
+        <v>-600000</v>
       </c>
       <c r="E400">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B401">
         <v>400</v>
       </c>
       <c r="C401" s="1">
-        <v>2043981092</v>
+        <v>2041956092</v>
       </c>
       <c r="D401">
         <v>-600000</v>
       </c>
       <c r="E401">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B402">
         <v>401</v>
       </c>
       <c r="C402" s="1">
-        <v>2044581092</v>
+        <v>2041356092</v>
       </c>
       <c r="D402">
-        <v>100311</v>
+        <v>-600000</v>
       </c>
       <c r="E402">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B403">
         <v>402</v>
       </c>
       <c r="C403" s="1">
-        <v>2043981092</v>
+        <v>2040756092</v>
       </c>
       <c r="D403">
         <v>-600000</v>
       </c>
       <c r="E403">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B404">
         <v>403</v>
       </c>
       <c r="C404" s="1">
-        <v>2043381092</v>
+        <v>2040156092</v>
       </c>
       <c r="D404">
         <v>-600000</v>
       </c>
       <c r="E404">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B405">
         <v>404</v>
       </c>
       <c r="C405" s="1">
-        <v>2043156092</v>
+        <v>2039706092</v>
       </c>
       <c r="D405">
-        <v>-396771</v>
+        <v>-515414</v>
       </c>
       <c r="E405">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B406">
         <v>405</v>
       </c>
       <c r="C406" s="1">
-        <v>2042556092</v>
+        <v>2039106092</v>
       </c>
       <c r="D406">
         <v>-600000</v>
       </c>
       <c r="E406">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B407">
         <v>406</v>
       </c>
       <c r="C407" s="1">
-        <v>2041956092</v>
+        <v>2038506092</v>
       </c>
       <c r="D407">
         <v>-600000</v>
       </c>
       <c r="E407">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B408">
         <v>407</v>
       </c>
       <c r="C408" s="1">
-        <v>2041356092</v>
+        <v>2037906092</v>
       </c>
       <c r="D408">
         <v>-600000</v>
       </c>
       <c r="E408">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B409">
         <v>408</v>
       </c>
       <c r="C409" s="1">
-        <v>2040756092</v>
+        <v>2037306092</v>
       </c>
       <c r="D409">
         <v>-600000</v>
       </c>
       <c r="E409">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B410">
         <v>409</v>
       </c>
       <c r="C410" s="1">
-        <v>2040156092</v>
+        <v>2036931092</v>
       </c>
       <c r="D410">
-        <v>-600000</v>
+        <v>-451225</v>
       </c>
       <c r="E410">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B411">
         <v>410</v>
       </c>
       <c r="C411" s="1">
-        <v>2039706092</v>
+        <v>2036481092</v>
       </c>
       <c r="D411">
-        <v>-515414</v>
+        <v>-507241</v>
       </c>
       <c r="E411">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B412">
         <v>411</v>
       </c>
       <c r="C412" s="1">
-        <v>2039106092</v>
+        <v>2035881092</v>
       </c>
       <c r="D412">
         <v>-600000</v>
       </c>
       <c r="E412">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B413">
         <v>412</v>
       </c>
       <c r="C413" s="1">
-        <v>2038506092</v>
+        <v>2037681092</v>
       </c>
       <c r="D413">
-        <v>-600000</v>
+        <v>1346559</v>
       </c>
       <c r="E413">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B414">
         <v>413</v>
       </c>
       <c r="C414" s="1">
-        <v>2037906092</v>
+        <v>2037081092</v>
       </c>
       <c r="D414">
         <v>-600000</v>
       </c>
       <c r="E414">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B415">
         <v>414</v>
       </c>
       <c r="C415" s="1">
-        <v>2037306092</v>
+        <v>2037981092</v>
       </c>
       <c r="D415">
-        <v>-600000</v>
+        <v>210377</v>
       </c>
       <c r="E415">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B416">
         <v>415</v>
       </c>
       <c r="C416" s="1">
-        <v>2036931092</v>
+        <v>2037381092</v>
       </c>
       <c r="D416">
-        <v>-451225</v>
+        <v>-600000</v>
       </c>
       <c r="E416">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B417">
         <v>416</v>
       </c>
       <c r="C417" s="1">
-        <v>2036481092</v>
+        <v>2036781092</v>
       </c>
       <c r="D417">
-        <v>-507241</v>
+        <v>-600000</v>
       </c>
       <c r="E417">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B418">
         <v>417</v>
       </c>
       <c r="C418" s="1">
-        <v>2035881092</v>
+        <v>2037531092</v>
       </c>
       <c r="D418">
-        <v>-600000</v>
+        <v>106918</v>
       </c>
       <c r="E418">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B419">
         <v>418</v>
       </c>
       <c r="C419" s="1">
-        <v>2037681092</v>
+        <v>2036931092</v>
       </c>
       <c r="D419">
-        <v>1346559</v>
+        <v>-600000</v>
       </c>
       <c r="E419">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B420">
         <v>419</v>
       </c>
       <c r="C420" s="1">
-        <v>2037081092</v>
+        <v>2052531092</v>
       </c>
       <c r="D420">
-        <v>-600000</v>
+        <v>7748775</v>
       </c>
       <c r="E420">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B421">
         <v>420</v>
       </c>
       <c r="C421" s="1">
-        <v>2037981092</v>
+        <v>2052156092</v>
       </c>
       <c r="D421">
-        <v>210377</v>
+        <v>-447642</v>
       </c>
       <c r="E421">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B422">
         <v>421</v>
       </c>
       <c r="C422" s="1">
-        <v>2037381092</v>
+        <v>2051556092</v>
       </c>
       <c r="D422">
         <v>-600000</v>
       </c>
       <c r="E422">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B423">
         <v>422</v>
       </c>
       <c r="C423" s="1">
-        <v>2036781092</v>
+        <v>2051106092</v>
       </c>
       <c r="D423">
-        <v>-600000</v>
+        <v>-509893</v>
       </c>
       <c r="E423">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B424">
         <v>423</v>
       </c>
       <c r="C424" s="1">
-        <v>2037531092</v>
+        <v>2050506092</v>
       </c>
       <c r="D424">
-        <v>106918</v>
+        <v>-600000</v>
       </c>
       <c r="E424">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B425">
         <v>424</v>
       </c>
       <c r="C425" s="1">
-        <v>2036931092</v>
+        <v>2049906092</v>
       </c>
       <c r="D425">
         <v>-600000</v>
       </c>
       <c r="E425">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B426">
         <v>425</v>
       </c>
       <c r="C426" s="1">
-        <v>2052531092</v>
+        <v>2049756092</v>
       </c>
       <c r="D426">
-        <v>7748775</v>
+        <v>-300946</v>
       </c>
       <c r="E426">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B427">
         <v>426</v>
       </c>
       <c r="C427" s="1">
-        <v>2052156092</v>
+        <v>2049156092</v>
       </c>
       <c r="D427">
-        <v>-447642</v>
+        <v>-600000</v>
       </c>
       <c r="E427">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B428">
         <v>427</v>
       </c>
       <c r="C428" s="1">
-        <v>2051556092</v>
+        <v>2048556092</v>
       </c>
       <c r="D428">
         <v>-600000</v>
       </c>
       <c r="E428">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B429">
         <v>428</v>
       </c>
       <c r="C429" s="1">
-        <v>2051106092</v>
+        <v>2047956092</v>
       </c>
       <c r="D429">
-        <v>-509893</v>
+        <v>-600000</v>
       </c>
       <c r="E429">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B430">
         <v>429</v>
       </c>
       <c r="C430" s="1">
-        <v>2051106092</v>
+        <v>2047356092</v>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E430">
-        <v>477</v>
+        <v>70</v>
       </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B431">
         <v>430</v>
       </c>
       <c r="C431" s="1">
-        <v>2051106092</v>
+        <v>2046756092</v>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E431">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B432">
         <v>431</v>
       </c>
       <c r="C432" s="1">
-        <v>2051106092</v>
+        <v>2046156092</v>
       </c>
       <c r="D432">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E432">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B433">
         <v>432</v>
       </c>
       <c r="C433" s="1">
-        <v>2050506092</v>
+        <v>2045556092</v>
       </c>
       <c r="D433">
         <v>-600000</v>
       </c>
       <c r="E433">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B434">
         <v>433</v>
       </c>
       <c r="C434" s="1">
-        <v>2049906092</v>
+        <v>2044956092</v>
       </c>
       <c r="D434">
         <v>-600000</v>
       </c>
       <c r="E434">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B435">
         <v>434</v>
       </c>
       <c r="C435" s="1">
-        <v>2049756092</v>
+        <v>2044956092</v>
       </c>
       <c r="D435">
-        <v>-300946</v>
+        <v>-260212</v>
       </c>
       <c r="E435">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B436">
         <v>435</v>
       </c>
       <c r="C436" s="1">
-        <v>2049156092</v>
+        <v>2044356092</v>
       </c>
       <c r="D436">
         <v>-600000</v>
       </c>
       <c r="E436">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B437">
         <v>436</v>
       </c>
       <c r="C437" s="1">
-        <v>2048556092</v>
+        <v>2043756092</v>
       </c>
       <c r="D437">
         <v>-600000</v>
       </c>
       <c r="E437">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B438">
         <v>437</v>
       </c>
       <c r="C438" s="1">
-        <v>2047956092</v>
+        <v>2043156092</v>
       </c>
       <c r="D438">
         <v>-600000</v>
       </c>
       <c r="E438">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B439">
         <v>438</v>
       </c>
       <c r="C439" s="1">
-        <v>2047356092</v>
+        <v>2043306092</v>
       </c>
       <c r="D439">
-        <v>-600000</v>
+        <v>-145415</v>
       </c>
       <c r="E439">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B440">
         <v>439</v>
       </c>
       <c r="C440" s="1">
-        <v>2046756092</v>
+        <v>2042856092</v>
       </c>
       <c r="D440">
-        <v>-600000</v>
+        <v>-519543</v>
       </c>
       <c r="E440">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B441">
         <v>440</v>
       </c>
       <c r="C441" s="1">
-        <v>2046156092</v>
+        <v>2042256092</v>
       </c>
       <c r="D441">
         <v>-600000</v>
       </c>
       <c r="E441">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B442">
         <v>441</v>
       </c>
-      <c r="C442" s="1">
-        <v>2045556092</v>
-      </c>
-      <c r="D442">
-        <v>-600000</v>
-      </c>
-      <c r="E442">
-        <v>67</v>
+      <c r="C442" s="4">
+        <v>2041656092</v>
+      </c>
+      <c r="D442" s="5">
+        <v>-600000</v>
+      </c>
+      <c r="E442" s="5">
+        <v>58</v>
       </c>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B443">
         <v>442</v>
       </c>
-      <c r="C443" s="1">
-        <v>2044956092</v>
-      </c>
-      <c r="D443">
-        <v>-600000</v>
-      </c>
-      <c r="E443">
-        <v>66</v>
+      <c r="C443" s="4">
+        <v>2041722598</v>
+      </c>
+      <c r="D443" s="5">
+        <v>23011</v>
+      </c>
+      <c r="E443" s="5">
+        <v>558</v>
       </c>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B444">
         <v>443</v>
       </c>
       <c r="C444" s="1">
-        <v>2044956092</v>
+        <v>2041206092</v>
       </c>
       <c r="D444">
-        <v>-260212</v>
+        <v>-516506</v>
       </c>
       <c r="E444">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B445">
         <v>444</v>
       </c>
       <c r="C445" s="1">
-        <v>2044356092</v>
+        <v>2040606092</v>
       </c>
       <c r="D445">
         <v>-600000</v>
       </c>
       <c r="E445">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B446">
         <v>445</v>
       </c>
       <c r="C446" s="1">
-        <v>2043756092</v>
+        <v>2040006092</v>
       </c>
       <c r="D446">
         <v>-600000</v>
       </c>
       <c r="E446">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B447">
         <v>446</v>
       </c>
       <c r="C447" s="1">
-        <v>2043156092</v>
+        <v>2039406092</v>
       </c>
       <c r="D447">
         <v>-600000</v>
       </c>
       <c r="E447">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B448">
         <v>447</v>
       </c>
       <c r="C448" s="1">
-        <v>2043306092</v>
+        <v>2038806092</v>
       </c>
       <c r="D448">
-        <v>-145415</v>
+        <v>-600000</v>
       </c>
       <c r="E448">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B449">
         <v>448</v>
       </c>
       <c r="C449" s="1">
-        <v>2042856092</v>
+        <v>2038206092</v>
       </c>
       <c r="D449">
-        <v>-519543</v>
+        <v>-600000</v>
       </c>
       <c r="E449">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B450">
         <v>449</v>
       </c>
       <c r="C450" s="1">
-        <v>2042256092</v>
+        <v>2038281092</v>
       </c>
       <c r="D450">
-        <v>-600000</v>
+        <v>-205833</v>
       </c>
       <c r="E450">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B451">
         <v>450</v>
       </c>
       <c r="C451" s="1">
-        <v>2041656092</v>
+        <v>2037681092</v>
       </c>
       <c r="D451">
         <v>-600000</v>
       </c>
       <c r="E451">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B452">
         <v>451</v>
       </c>
       <c r="C452" s="1">
-        <v>2041722598</v>
+        <v>2037081092</v>
       </c>
       <c r="D452">
-        <v>23011</v>
+        <v>-600000</v>
       </c>
       <c r="E452">
-        <v>558</v>
+        <v>49</v>
       </c>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B453">
         <v>452</v>
       </c>
       <c r="C453" s="1">
-        <v>2041206092</v>
+        <v>2036481092</v>
       </c>
       <c r="D453">
-        <v>-516506</v>
+        <v>-600000</v>
       </c>
       <c r="E453">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B454">
         <v>453</v>
       </c>
       <c r="C454" s="1">
-        <v>2040606092</v>
+        <v>2037681092</v>
       </c>
       <c r="D454">
-        <v>-600000</v>
+        <v>386482</v>
       </c>
       <c r="E454">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B455">
         <v>454</v>
       </c>
       <c r="C455" s="1">
-        <v>2040006092</v>
+        <v>2037831092</v>
       </c>
       <c r="D455">
-        <v>-600000</v>
+        <v>-211077</v>
       </c>
       <c r="E455">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B456">
         <v>455</v>
       </c>
       <c r="C456" s="1">
-        <v>2039406092</v>
+        <v>2037681092</v>
       </c>
       <c r="D456">
-        <v>-600000</v>
+        <v>-349470</v>
       </c>
       <c r="E456">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B457">
         <v>456</v>
       </c>
       <c r="C457" s="1">
-        <v>2038806092</v>
+        <v>2037081092</v>
       </c>
       <c r="D457">
         <v>-600000</v>
       </c>
       <c r="E457">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B458">
         <v>457</v>
       </c>
       <c r="C458" s="1">
-        <v>2038206092</v>
+        <v>2036481092</v>
       </c>
       <c r="D458">
         <v>-600000</v>
       </c>
       <c r="E458">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B459">
         <v>458</v>
       </c>
       <c r="C459" s="1">
-        <v>2038281092</v>
+        <v>2035881092</v>
       </c>
       <c r="D459">
-        <v>-205833</v>
+        <v>-600000</v>
       </c>
       <c r="E459">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B460">
         <v>459</v>
       </c>
       <c r="C460" s="1">
-        <v>2037681092</v>
+        <v>2035506092</v>
       </c>
       <c r="D460">
-        <v>-600000</v>
+        <v>-466309</v>
       </c>
       <c r="E460">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B461">
         <v>460</v>
       </c>
       <c r="C461" s="1">
-        <v>2037081092</v>
+        <v>2034906092</v>
       </c>
       <c r="D461">
         <v>-600000</v>
       </c>
       <c r="E461">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B462">
         <v>461</v>
       </c>
       <c r="C462" s="1">
-        <v>2036481092</v>
+        <v>2034306092</v>
       </c>
       <c r="D462">
         <v>-600000</v>
       </c>
       <c r="E462">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B463">
         <v>462</v>
       </c>
       <c r="C463" s="1">
-        <v>2037681092</v>
+        <v>2034456092</v>
       </c>
       <c r="D463">
-        <v>386482</v>
+        <v>-133115</v>
       </c>
       <c r="E463">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B464">
         <v>463</v>
       </c>
       <c r="C464" s="1">
-        <v>2037681092</v>
+        <v>2034156092</v>
       </c>
       <c r="D464">
-        <v>0</v>
+        <v>-427098</v>
       </c>
       <c r="E464">
-        <v>547</v>
+        <v>37</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B465">
         <v>464</v>
       </c>
       <c r="C465" s="1">
-        <v>2037831092</v>
+        <v>2033556092</v>
       </c>
       <c r="D465">
-        <v>-211077</v>
+        <v>-600000</v>
       </c>
       <c r="E465">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B466">
         <v>465</v>
       </c>
       <c r="C466" s="1">
-        <v>2037681092</v>
+        <v>2033856092</v>
       </c>
       <c r="D466">
-        <v>-349470</v>
+        <v>-737</v>
       </c>
       <c r="E466">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B467">
         <v>466</v>
       </c>
       <c r="C467" s="1">
-        <v>2037081092</v>
+        <v>2033256092</v>
       </c>
       <c r="D467">
         <v>-600000</v>
       </c>
       <c r="E467">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B468">
         <v>467</v>
       </c>
       <c r="C468" s="1">
-        <v>2036481092</v>
+        <v>2032656092</v>
       </c>
       <c r="D468">
         <v>-600000</v>
       </c>
       <c r="E468">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B469">
         <v>468</v>
       </c>
       <c r="C469" s="1">
-        <v>2035881092</v>
+        <v>2032056092</v>
       </c>
       <c r="D469">
         <v>-600000</v>
       </c>
       <c r="E469">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B470">
         <v>469</v>
       </c>
       <c r="C470" s="1">
-        <v>2035506092</v>
+        <v>2031456092</v>
       </c>
       <c r="D470">
-        <v>-466309</v>
+        <v>-600000</v>
       </c>
       <c r="E470">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B471">
         <v>470</v>
       </c>
       <c r="C471" s="1">
-        <v>2034906092</v>
+        <v>2030856092</v>
       </c>
       <c r="D471">
         <v>-600000</v>
       </c>
       <c r="E471">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B472">
         <v>471</v>
       </c>
       <c r="C472" s="1">
-        <v>2034906092</v>
+        <v>2030256092</v>
       </c>
       <c r="D472">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E472">
-        <v>540</v>
+        <v>29</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B473">
         <v>472</v>
       </c>
       <c r="C473" s="1">
-        <v>2034306092</v>
+        <v>2029656092</v>
       </c>
       <c r="D473">
         <v>-600000</v>
       </c>
       <c r="E473">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B474">
         <v>473</v>
       </c>
       <c r="C474" s="1">
-        <v>2034456092</v>
+        <v>2029056092</v>
       </c>
       <c r="D474">
-        <v>-133115</v>
+        <v>-600000</v>
       </c>
       <c r="E474">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B475">
         <v>474</v>
       </c>
       <c r="C475" s="1">
-        <v>2034156092</v>
+        <v>2029656092</v>
       </c>
       <c r="D475">
-        <v>-427098</v>
+        <v>11055</v>
       </c>
       <c r="E475">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B476">
         <v>475</v>
       </c>
       <c r="C476" s="1">
-        <v>2033556092</v>
+        <v>2029806092</v>
       </c>
       <c r="D476">
-        <v>-600000</v>
+        <v>-124726</v>
       </c>
       <c r="E476">
-        <v>36</v>
+        <v>525</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B477">
         <v>476</v>
       </c>
       <c r="C477" s="1">
-        <v>2033856092</v>
+        <v>2029356092</v>
       </c>
       <c r="D477">
-        <v>-737</v>
+        <v>-509525</v>
       </c>
       <c r="E477">
-        <v>35</v>
+        <v>524</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B478">
         <v>477</v>
       </c>
       <c r="C478" s="1">
-        <v>2033256092</v>
+        <v>2028756092</v>
       </c>
       <c r="D478">
         <v>-600000</v>
       </c>
       <c r="E478">
-        <v>34</v>
+        <v>523</v>
       </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B479">
         <v>478</v>
       </c>
       <c r="C479" s="1">
-        <v>2032656092</v>
+        <v>2029037553</v>
       </c>
       <c r="D479">
-        <v>-600000</v>
+        <v>170291</v>
       </c>
       <c r="E479">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B480">
         <v>479</v>
       </c>
       <c r="C480" s="1">
-        <v>2032056092</v>
+        <v>2029056092</v>
       </c>
       <c r="D480">
-        <v>-600000</v>
+        <v>-123419</v>
       </c>
       <c r="E480">
-        <v>32</v>
+        <v>522</v>
       </c>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B481">
         <v>480</v>
       </c>
       <c r="C481" s="1">
-        <v>2031456092</v>
+        <v>2028606092</v>
       </c>
       <c r="D481">
-        <v>-600000</v>
+        <v>-508481</v>
       </c>
       <c r="E481">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B482">
         <v>481</v>
       </c>
       <c r="C482" s="1">
-        <v>2030856092</v>
+        <v>2028006092</v>
       </c>
       <c r="D482">
         <v>-600000</v>
       </c>
       <c r="E482">
-        <v>30</v>
+        <v>520</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B483">
         <v>482</v>
       </c>
       <c r="C483" s="1">
-        <v>2030256092</v>
+        <v>2027406092</v>
       </c>
       <c r="D483">
         <v>-600000</v>
       </c>
       <c r="E483">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B484">
         <v>483</v>
       </c>
       <c r="C484" s="1">
-        <v>2030256092</v>
+        <v>2026806092</v>
       </c>
       <c r="D484">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E484">
-        <v>529</v>
+        <v>18</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B485">
         <v>484</v>
       </c>
       <c r="C485" s="1">
-        <v>2029656092</v>
+        <v>2026206092</v>
       </c>
       <c r="D485">
         <v>-600000</v>
       </c>
       <c r="E485">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B486">
         <v>485</v>
       </c>
       <c r="C486" s="1">
-        <v>2029656092</v>
+        <v>2025606092</v>
       </c>
       <c r="D486">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E486">
-        <v>528</v>
+        <v>16</v>
       </c>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B487">
         <v>486</v>
       </c>
       <c r="C487" s="1">
-        <v>2029056092</v>
+        <v>2025156092</v>
       </c>
       <c r="D487">
-        <v>-600000</v>
+        <v>-523978</v>
       </c>
       <c r="E487">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="B488">
         <v>487</v>
       </c>
       <c r="C488" s="1">
-        <v>2029656092</v>
+        <v>2024556092</v>
       </c>
       <c r="D488">
-        <v>11055</v>
+        <v>-600000</v>
       </c>
       <c r="E488">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B489">
         <v>488</v>
       </c>
       <c r="C489" s="1">
-        <v>2029806092</v>
+        <v>2023956092</v>
       </c>
       <c r="D489">
-        <v>-124726</v>
+        <v>-600000</v>
       </c>
       <c r="E489">
-        <v>525</v>
+        <v>13</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B490">
         <v>489</v>
       </c>
       <c r="C490" s="1">
-        <v>2029356092</v>
+        <v>2023356092</v>
       </c>
       <c r="D490">
-        <v>-509525</v>
+        <v>-600000</v>
       </c>
       <c r="E490">
-        <v>524</v>
+        <v>12</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B491">
         <v>490</v>
       </c>
       <c r="C491" s="1">
-        <v>2028756092</v>
+        <v>2022156092</v>
       </c>
       <c r="D491">
         <v>-600000</v>
       </c>
       <c r="E491">
-        <v>523</v>
+        <v>10</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B492">
         <v>491</v>
       </c>
       <c r="C492" s="1">
-        <v>2029037553</v>
+        <v>2021556092</v>
       </c>
       <c r="D492">
-        <v>170291</v>
+        <v>-600000</v>
       </c>
       <c r="E492">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B493">
         <v>492</v>
       </c>
       <c r="C493" s="1">
-        <v>2029056092</v>
+        <v>2020956092</v>
       </c>
       <c r="D493">
-        <v>-123419</v>
+        <v>-600000</v>
       </c>
       <c r="E493">
-        <v>522</v>
+        <v>88</v>
       </c>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="B494">
         <v>493</v>
       </c>
       <c r="C494" s="1">
-        <v>2028606092</v>
+        <v>2020956092</v>
       </c>
       <c r="D494">
-        <v>-508481</v>
+        <v>0</v>
       </c>
       <c r="E494">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="B495">
         <v>494</v>
       </c>
       <c r="C495" s="1">
-        <v>2028606092</v>
+        <v>2020356092</v>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>-600000</v>
       </c>
       <c r="E495">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="B496">
         <v>495</v>
       </c>
       <c r="C496" s="1">
-        <v>2028006092</v>
+        <v>2019531092</v>
       </c>
       <c r="D496">
         <v>-600000</v>
       </c>
       <c r="E496">
-        <v>520</v>
+        <v>815</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="B497">
         <v>496</v>
       </c>
       <c r="C497" s="1">
-        <v>2027406092</v>
+        <v>2019081092</v>
       </c>
       <c r="D497">
-        <v>-600000</v>
+        <v>-522026</v>
       </c>
       <c r="E497">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B498">
         <v>497</v>
       </c>
       <c r="C498" s="1">
-        <v>2026806092</v>
+        <v>2019081092</v>
       </c>
       <c r="D498">
-        <v>-600000</v>
+        <v>0</v>
       </c>
       <c r="E498">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B499">
         <v>498</v>
       </c>
       <c r="C499" s="1">
-        <v>2026206092</v>
+        <v>2018481092</v>
       </c>
       <c r="D499">
         <v>-600000</v>
       </c>
       <c r="E499">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="B500">
         <v>499</v>
       </c>
       <c r="C500" s="1">
-        <v>2025606092</v>
+        <v>2017881092</v>
       </c>
       <c r="D500">
         <v>-600000</v>
       </c>
       <c r="E500">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="B501">
         <v>500</v>
       </c>
       <c r="C501" s="1">
-        <v>2025156092</v>
+        <v>2017281092</v>
       </c>
       <c r="D501">
-        <v>-523978</v>
+        <v>-600000</v>
       </c>
       <c r="E501">
-        <v>15</v>
+        <v>81</v>
       </c>
     </row>
     <row r="502" spans="1:5">
       <c r="A502" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B502">
         <v>501</v>
       </c>
       <c r="C502" s="1">
-        <v>2024556092</v>
+        <v>2025481092</v>
       </c>
       <c r="D502">
-        <v>-600000</v>
+        <v>0</v>
       </c>
       <c r="E502">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
-      <c r="A503" t="s">
-        <v>495</v>
-      </c>
-      <c r="B503">
-        <v>502</v>
-      </c>
-      <c r="C503" s="1">
-        <v>2023956092</v>
-      </c>
-      <c r="D503">
-        <v>-600000</v>
-      </c>
-      <c r="E503">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
-      <c r="A504" t="s">
-        <v>496</v>
-      </c>
-      <c r="B504">
-        <v>503</v>
-      </c>
-      <c r="C504" s="1">
-        <v>2023356092</v>
-      </c>
-      <c r="D504">
-        <v>-600000</v>
-      </c>
-      <c r="E504">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
-      <c r="A505" t="s">
-        <v>497</v>
-      </c>
-      <c r="B505">
-        <v>504</v>
-      </c>
-      <c r="C505" s="1">
-        <v>2022156092</v>
-      </c>
-      <c r="D505">
-        <v>-600000</v>
-      </c>
-      <c r="E505">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
-      <c r="A506" t="s">
-        <v>498</v>
-      </c>
-      <c r="B506">
-        <v>505</v>
-      </c>
-      <c r="C506" s="1">
-        <v>2021556092</v>
-      </c>
-      <c r="D506">
-        <v>-600000</v>
-      </c>
-      <c r="E506">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
-      <c r="A507" t="s">
-        <v>499</v>
-      </c>
-      <c r="B507">
-        <v>506</v>
-      </c>
-      <c r="C507" s="1">
-        <v>2021556092</v>
-      </c>
-      <c r="D507">
-        <v>0</v>
-      </c>
-      <c r="E507">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
-      <c r="A508" t="s">
-        <v>500</v>
-      </c>
-      <c r="B508">
-        <v>507</v>
-      </c>
-      <c r="C508" s="1">
-        <v>2020956092</v>
-      </c>
-      <c r="D508">
-        <v>-600000</v>
-      </c>
-      <c r="E508">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
-      <c r="A509" t="s">
-        <v>501</v>
-      </c>
-      <c r="B509">
-        <v>508</v>
-      </c>
-      <c r="C509" s="1">
-        <v>2020956092</v>
-      </c>
-      <c r="D509">
-        <v>0</v>
-      </c>
-      <c r="E509">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
-      <c r="A510" t="s">
-        <v>502</v>
-      </c>
-      <c r="B510">
-        <v>509</v>
-      </c>
-      <c r="C510" s="1">
-        <v>2020356092</v>
-      </c>
-      <c r="D510">
-        <v>-600000</v>
-      </c>
-      <c r="E510">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
-      <c r="A511" t="s">
-        <v>503</v>
-      </c>
-      <c r="B511">
-        <v>510</v>
-      </c>
-      <c r="C511" s="1">
-        <v>2019531092</v>
-      </c>
-      <c r="D511">
-        <v>-600000</v>
-      </c>
-      <c r="E511">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
-      <c r="A512" t="s">
-        <v>504</v>
-      </c>
-      <c r="B512">
-        <v>511</v>
-      </c>
-      <c r="C512" s="1">
-        <v>2019081092</v>
-      </c>
-      <c r="D512">
-        <v>-522026</v>
-      </c>
-      <c r="E512">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
-      <c r="A513" t="s">
-        <v>505</v>
-      </c>
-      <c r="B513">
-        <v>512</v>
-      </c>
-      <c r="C513" s="1">
-        <v>2019081092</v>
-      </c>
-      <c r="D513">
-        <v>0</v>
-      </c>
-      <c r="E513">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
-      <c r="A514" t="s">
-        <v>506</v>
-      </c>
-      <c r="B514">
-        <v>513</v>
-      </c>
-      <c r="C514" s="1">
-        <v>2018481092</v>
-      </c>
-      <c r="D514">
-        <v>-600000</v>
-      </c>
-      <c r="E514">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
-      <c r="A515" t="s">
-        <v>507</v>
-      </c>
-      <c r="B515">
-        <v>514</v>
-      </c>
-      <c r="C515" s="1">
-        <v>2017881092</v>
-      </c>
-      <c r="D515">
-        <v>-600000</v>
-      </c>
-      <c r="E515">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
-      <c r="A516" t="s">
-        <v>508</v>
-      </c>
-      <c r="B516">
-        <v>515</v>
-      </c>
-      <c r="C516" s="1">
-        <v>2017281092</v>
-      </c>
-      <c r="D516">
-        <v>-600000</v>
-      </c>
-      <c r="E516">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" t="s">
-        <v>509</v>
-      </c>
-      <c r="B517">
-        <v>516</v>
-      </c>
-      <c r="C517" s="1">
-        <v>2025481092</v>
-      </c>
-      <c r="D517">
-        <v>0</v>
-      </c>
-      <c r="E517">
         <v>1</v>
       </c>
     </row>
